--- a/lib/report/benchmark_report/web14/exl/202212/jsliu__bank_test_&_city_(HF)(202212)_Loan_Portfolio_Analytics.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202212/jsliu__bank_test_&_city_(HF)(202212)_Loan_Portfolio_Analytics.xlsx
@@ -206,7 +206,7 @@
     <t>Portfolio Name: Loans and lease financing receivables          Cycle: December, 2022           Evaluation Date: December 30, 2022</t>
   </si>
   <si>
-    <t>Printed on: 02/09/2023 1:29:50PM</t>
+    <t>Printed on: 02/10/2023 2:11:36PM</t>
   </si>
   <si>
     <t>Footnotes:_x000D_
@@ -1056,7 +1056,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-15F0-4EC7-806C-EE163110B76A}"/>
+                <c16:uniqueId val="{00000001-1115-42A5-91AD-218E9E288318}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1070,7 +1070,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-15F0-4EC7-806C-EE163110B76A}"/>
+                <c16:uniqueId val="{00000003-1115-42A5-91AD-218E9E288318}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1084,7 +1084,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-15F0-4EC7-806C-EE163110B76A}"/>
+                <c16:uniqueId val="{00000005-1115-42A5-91AD-218E9E288318}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1098,7 +1098,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-15F0-4EC7-806C-EE163110B76A}"/>
+                <c16:uniqueId val="{00000007-1115-42A5-91AD-218E9E288318}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1136,7 +1136,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-15F0-4EC7-806C-EE163110B76A}"/>
+                  <c16:uniqueId val="{00000005-1115-42A5-91AD-218E9E288318}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1247,65 +1247,65 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1722.6846449370692</c:v>
+                  <c:v>1722.7009999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2737.3153550629308</c:v>
+                  <c:v>2737.317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4841.4116827705684</c:v>
+                  <c:v>4841.4130000000123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9986.5883172294616</c:v>
+                  <c:v>9986.5859999999957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2787.250036395561</c:v>
+                  <c:v>2787.2540000000013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3356.7246306163147</c:v>
+                  <c:v>3356.723</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>372.96940340181288</c:v>
+                  <c:v>372.96900000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32306.502930843129</c:v>
+                  <c:v>32306.501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13153.803035138721</c:v>
+                  <c:v>13153.802000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17768.503760350522</c:v>
+                  <c:v>17768.510999999988</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>867.33197214497</c:v>
+                  <c:v>867.33199999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>142.164267504485</c:v>
+                  <c:v>142.16399999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>284.7499636044343</c:v>
+                  <c:v>284.74799999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3917.6850969277602</c:v>
+                  <c:v>3917.6839999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2242.3149030722398</c:v>
+                  <c:v>2242.31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6522.9999999999991</c:v>
+                  <c:v>6522.9979999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>108.96133708656167</c:v>
+                  <c:v>108.96300000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3377.0386629134391</c:v>
+                  <c:v>3377.0409999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-15F0-4EC7-806C-EE163110B76A}"/>
+              <c16:uniqueId val="{00000008-1115-42A5-91AD-218E9E288318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1408,7 +1408,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-62EB-4598-B0D5-1C1BF15D8FE9}"/>
+                <c16:uniqueId val="{00000001-FFA2-49D8-B566-C93AAC5E84B7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1422,7 +1422,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-62EB-4598-B0D5-1C1BF15D8FE9}"/>
+                <c16:uniqueId val="{00000003-FFA2-49D8-B566-C93AAC5E84B7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1436,7 +1436,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-62EB-4598-B0D5-1C1BF15D8FE9}"/>
+                <c16:uniqueId val="{00000005-FFA2-49D8-B566-C93AAC5E84B7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1450,7 +1450,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-62EB-4598-B0D5-1C1BF15D8FE9}"/>
+                <c16:uniqueId val="{00000007-FFA2-49D8-B566-C93AAC5E84B7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1511,14 +1511,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>106496.99999999936</c:v>
+                  <c:v>106497.01700000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-62EB-4598-B0D5-1C1BF15D8FE9}"/>
+              <c16:uniqueId val="{00000008-FFA2-49D8-B566-C93AAC5E84B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2628,15 +2628,15 @@
       <c r="D10" s="51"/>
       <c r="E10" s="38">
         <f>C10/100-U17+Q17</f>
-        <v>5.5118345138097133</v>
+        <v>5.5118170836667844</v>
       </c>
       <c r="F10" s="39">
         <f>(1-(C10/10000-U17/100)*AB17)*E17</f>
-        <v>100.0380261478016</v>
+        <v>100.04028925967093</v>
       </c>
       <c r="G10" s="40">
         <f>(1-(C10/10000-U17/100)*AB17)*F17</f>
-        <v>99.332183382687518</v>
+        <v>99.33444566428291</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -2958,23 +2958,23 @@
       </c>
       <c r="E17" s="16">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!E101:E112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>99.888922566457822</v>
+        <v>99.8911961049848</v>
       </c>
       <c r="F17" s="16">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!F101:F112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>99.184131838136125</v>
+        <v>99.186404450261193</v>
       </c>
       <c r="G17" s="17">
         <f>SUM(DATATEMP!G101:G112)</f>
-        <v>105628.12488365981</v>
+        <v>105630.56200908344</v>
       </c>
       <c r="H17" s="17">
         <f>SUM(DATATEMP!H101:H112)</f>
-        <v>106496.99999999999</v>
+        <v>106497.01700000001</v>
       </c>
       <c r="I17" s="18">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!I101:I112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>5.6517044690519826</v>
+        <v>5.651660869524636</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -2984,87 +2984,87 @@
       </c>
       <c r="M17" s="17">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!M101:M112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>20.292792724691914</v>
+        <v>20.292792107031495</v>
       </c>
       <c r="N17" s="17">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!N101:N112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>153.7432036255563</v>
+        <v>153.74387321328584</v>
       </c>
       <c r="O17" s="17">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!O101:O112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>720.00000000000011</v>
+        <v>719.99999999999977</v>
       </c>
       <c r="P17" s="17">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!P101:P112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>75</v>
+        <v>74.999999999999986</v>
       </c>
       <c r="Q17" s="21">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!Q101:Q112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>5.5558528680978272</v>
+        <v>5.555829754205508</v>
       </c>
       <c r="R17" s="21">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!R101:R112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>4.1936985144140104</v>
+        <v>4.1936967539144669</v>
       </c>
       <c r="S17" s="21">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!S101:S112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>1.5155810987628618E-2</v>
+        <v>1.5147989209238027E-2</v>
       </c>
       <c r="T17" s="21">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!T101:T112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>0.30298018840807434</v>
+        <v>0.30297234054307909</v>
       </c>
       <c r="U17" s="21">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!U101:U112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>1.0440183542881138</v>
+        <v>1.0440126705387238</v>
       </c>
       <c r="V17" s="21">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!V101:V112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>1.0939200814815819</v>
+        <v>1.0939490260634006</v>
       </c>
       <c r="W17" s="16">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!W101:W112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>4.2509429174105042</v>
+        <v>4.251135781565532</v>
       </c>
       <c r="X17" s="16">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!X101:X112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>2.8414607673818209</v>
+        <v>2.840660337933111</v>
       </c>
       <c r="Y17" s="16">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!Y101:Y112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>0.38483226853982277</v>
+        <v>0.38675813746199927</v>
       </c>
       <c r="Z17" s="22">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!Z101:Z112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>3.2887197029104051E-3</v>
+        <v>3.2822810736860488E-3</v>
       </c>
       <c r="AA17" s="16">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!AA101:AA112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>0.77672333230500812</v>
+        <v>0.77690900284277709</v>
       </c>
       <c r="AB17" s="16">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!AB101:AB112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>3.3910714828123014</v>
+        <v>3.3911950516006635</v>
       </c>
       <c r="AC17" s="16">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!AC101:AC112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>10.292065678032115</v>
+        <v>10.287268852724935</v>
       </c>
       <c r="AD17" s="16">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!AD101:AD112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>11.844617154600961</v>
+        <v>11.845226869212738</v>
       </c>
       <c r="AE17" s="16">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!AE101:AE112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>0.26209459611606162</v>
+        <v>0.26209102620768021</v>
       </c>
       <c r="AF17" s="16">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!AF101:AF112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>0.33095790783913215</v>
+        <v>0.33096495382331931</v>
       </c>
       <c r="AG17" s="17">
         <f>SUM(DATATEMP!AG101:AG112)</f>
-        <v>915.76541167019263</v>
+        <v>915.8250261189462</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3147,19 +3147,19 @@
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="23">
-        <v>99.212071404996806</v>
+        <v>99.212734979840505</v>
       </c>
       <c r="F20" s="23">
-        <v>98.768215777758741</v>
+        <v>98.768878254547104</v>
       </c>
       <c r="G20" s="26">
-        <v>2087.9600815418198</v>
+        <v>2087.96025865817</v>
       </c>
       <c r="H20" s="26">
-        <v>2114</v>
+        <v>2113.9859999999999</v>
       </c>
       <c r="I20" s="27">
-        <v>5.2443018518761297</v>
+        <v>5.2454573445614097</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
@@ -3177,40 +3177,40 @@
         <v>75</v>
       </c>
       <c r="Q20" s="30">
-        <v>6.2474205999895931</v>
+        <v>6.2474228625243491</v>
       </c>
       <c r="R20" s="30">
-        <v>4.4752719868617419</v>
+        <v>4.4752752283464492</v>
       </c>
       <c r="S20" s="30">
-        <v>6.9463502681465999E-6</v>
+        <v>6.9449225704480598E-6</v>
       </c>
       <c r="T20" s="30">
-        <v>0.50383175491501309</v>
+        <v>0.50383124769135901</v>
       </c>
       <c r="U20" s="30">
-        <v>1.26830991186257</v>
+        <v>1.26830944156397</v>
       </c>
       <c r="V20" s="30">
-        <v>1.3117858066965999</v>
+        <v>1.3117859874317701</v>
       </c>
       <c r="W20" s="23">
-        <v>2.8366227418433998</v>
+        <v>2.8365596159579001</v>
       </c>
       <c r="X20" s="23">
-        <v>1.3267147205608412</v>
+        <v>1.326686230481823</v>
       </c>
       <c r="Y20" s="23">
-        <v>5.9714635642546178E-2</v>
+        <v>5.9710797456587389E-2</v>
       </c>
       <c r="Z20" s="31">
         <v>0</v>
       </c>
       <c r="AA20" s="23">
-        <v>0.70302047147079605</v>
+        <v>0.70298976286882198</v>
       </c>
       <c r="AB20" s="23">
-        <v>2.2221675231639648</v>
+        <v>2.2221312471468977</v>
       </c>
       <c r="AC20" s="23">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>0.48339000000000004</v>
       </c>
       <c r="AG20" s="26">
-        <v>22.847731023452603</v>
+        <v>22.8476362362094</v>
       </c>
     </row>
     <row r="21" spans="1:33" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3236,19 +3236,19 @@
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="23">
-        <v>99.212071404996806</v>
+        <v>99.212738848672302</v>
       </c>
       <c r="F21" s="23">
-        <v>98.768215777758741</v>
+        <v>98.768880797588849</v>
       </c>
       <c r="G21" s="26">
-        <v>2317.1023421462201</v>
+        <v>2317.1495495532899</v>
       </c>
       <c r="H21" s="26">
-        <v>2346</v>
+        <v>2346.0320000000002</v>
       </c>
       <c r="I21" s="27">
-        <v>5.2443018518761404</v>
+        <v>5.2454566476501601</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
@@ -3266,40 +3266,40 @@
         <v>75</v>
       </c>
       <c r="Q21" s="30">
-        <v>6.2474205999895922</v>
+        <v>6.2474194862678676</v>
       </c>
       <c r="R21" s="30">
-        <v>4.475271986861741</v>
+        <v>4.475272408022712</v>
       </c>
       <c r="S21" s="30">
-        <v>6.9463502681465398E-6</v>
+        <v>6.9440002787727696E-6</v>
       </c>
       <c r="T21" s="30">
-        <v>0.50383175491501309</v>
+        <v>0.50383118161462692</v>
       </c>
       <c r="U21" s="30">
-        <v>1.26830991186257</v>
+        <v>1.26830895263025</v>
       </c>
       <c r="V21" s="30">
-        <v>1.3117858066965999</v>
+        <v>1.3117855745159401</v>
       </c>
       <c r="W21" s="23">
-        <v>2.83662274184339</v>
+        <v>2.83656482304497</v>
       </c>
       <c r="X21" s="23">
-        <v>1.3267147205580314</v>
+        <v>1.3266757920168988</v>
       </c>
       <c r="Y21" s="23">
-        <v>5.9714635639094509E-2</v>
+        <v>5.9709963876272851E-2</v>
       </c>
       <c r="Z21" s="31">
         <v>0</v>
       </c>
       <c r="AA21" s="23">
-        <v>0.70302047147079505</v>
+        <v>0.70299313852782097</v>
       </c>
       <c r="AB21" s="23">
-        <v>2.2221675231642473</v>
+        <v>2.222139117260435</v>
       </c>
       <c r="AC21" s="23">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0.48339000000000004</v>
       </c>
       <c r="AG21" s="26">
-        <v>25.355145213348003</v>
+        <v>25.3556295265683</v>
       </c>
     </row>
     <row r="22" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3397,19 +3397,19 @@
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="23">
-        <v>99.519388345804899</v>
+        <v>99.5226754005988</v>
       </c>
       <c r="F24" s="23">
-        <v>98.5911381616977</v>
+        <v>98.59441236225959</v>
       </c>
       <c r="G24" s="26">
-        <v>4598.2906838615709</v>
+        <v>4598.4522660728999</v>
       </c>
       <c r="H24" s="26">
-        <v>4663.99999999999</v>
+        <v>4664.009</v>
       </c>
       <c r="I24" s="27">
-        <v>5.0943693048893604</v>
+        <v>5.0956662154811498</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
@@ -3427,40 +3427,40 @@
         <v>75</v>
       </c>
       <c r="Q24" s="30">
-        <v>5.402331431479805</v>
+        <v>5.4023186077424832</v>
       </c>
       <c r="R24" s="30">
-        <v>4.147589740521533</v>
+        <v>4.1475870670627524</v>
       </c>
       <c r="S24" s="30">
-        <v>4.9118613500626001E-6</v>
+        <v>4.9143715749702596E-6</v>
       </c>
       <c r="T24" s="30">
-        <v>0.25715128105941504</v>
+        <v>0.25714654838108303</v>
       </c>
       <c r="U24" s="30">
-        <v>0.99758549803750707</v>
+        <v>0.99758007792707204</v>
       </c>
       <c r="V24" s="30">
-        <v>1.05266712765651</v>
+        <v>1.0526655140469199</v>
       </c>
       <c r="W24" s="23">
-        <v>6.0582203141602102</v>
+        <v>6.0583001199961899</v>
       </c>
       <c r="X24" s="23">
-        <v>3.4764365621771942</v>
+        <v>3.4764546208484171</v>
       </c>
       <c r="Y24" s="23">
-        <v>0.29559483893972627</v>
+        <v>0.29559646010224178</v>
       </c>
       <c r="Z24" s="31">
         <v>0</v>
       </c>
       <c r="AA24" s="23">
-        <v>0.91398811807071101</v>
+        <v>0.91405837057620287</v>
       </c>
       <c r="AB24" s="23">
-        <v>4.5817288826698128</v>
+        <v>4.5817283401797289</v>
       </c>
       <c r="AC24" s="23">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG24" s="26">
-        <v>53.8295671913042</v>
+        <v>53.830416486976098</v>
       </c>
     </row>
     <row r="25" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3558,19 +3558,19 @@
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="23">
-        <v>105.817452264</v>
+        <v>105.8215182703</v>
       </c>
       <c r="F27" s="23">
-        <v>105.37431546004056</v>
+        <v>105.37837510506792</v>
       </c>
       <c r="G27" s="26">
-        <v>2233.9354877528599</v>
+        <v>2234.0215522274398</v>
       </c>
       <c r="H27" s="26">
         <v>2120</v>
       </c>
       <c r="I27" s="27">
-        <v>7.5150089605000003</v>
+        <v>7.52</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
@@ -3588,55 +3588,55 @@
         <v>75</v>
       </c>
       <c r="Q27" s="30">
-        <v>6.2034345100000001</v>
+        <v>6.2034924499999997</v>
       </c>
       <c r="R27" s="30">
-        <v>4.1873676400000006</v>
+        <v>4.1873702999999995</v>
       </c>
       <c r="S27" s="30">
         <v>6.3799999999999999E-6</v>
       </c>
       <c r="T27" s="30">
-        <v>0.63733549999999994</v>
+        <v>0.63736212999999997</v>
       </c>
       <c r="U27" s="30">
-        <v>1.37872499</v>
+        <v>1.37875364</v>
       </c>
       <c r="V27" s="30">
-        <v>1.3096451099999999</v>
+        <v>1.3096840300000001</v>
       </c>
       <c r="W27" s="23">
-        <v>2.5023486348000001</v>
+        <v>2.5023864995</v>
       </c>
       <c r="X27" s="23">
-        <v>0.8587431879914289</v>
+        <v>0.85873410871172495</v>
       </c>
       <c r="Y27" s="23">
-        <v>1.2439742845200297E-2</v>
+        <v>1.2439555328228748E-2</v>
       </c>
       <c r="Z27" s="31">
-        <v>4.0296077700000002E-2</v>
+        <v>4.0299034800000001E-2</v>
       </c>
       <c r="AA27" s="23">
-        <v>1.0065241979999999</v>
+        <v>1.0065564402</v>
       </c>
       <c r="AB27" s="23">
-        <v>2.1929760418677398</v>
+        <v>2.1929389066235769</v>
       </c>
       <c r="AC27" s="23">
-        <v>24.999823229999997</v>
+        <v>24.999823269999997</v>
       </c>
       <c r="AD27" s="23">
         <v>24.999683650000001</v>
       </c>
       <c r="AE27" s="23">
-        <v>0.77122710999999999</v>
+        <v>0.77122922000000005</v>
       </c>
       <c r="AF27" s="23">
-        <v>0.63499089000000009</v>
+        <v>0.63502430999999993</v>
       </c>
       <c r="AG27" s="26">
-        <v>30.866855823202098</v>
+        <v>30.8687700741859</v>
       </c>
     </row>
     <row r="28" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3719,25 +3719,25 @@
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="23">
-        <v>99.616164868099801</v>
+        <v>99.619157479511401</v>
       </c>
       <c r="F30" s="23">
-        <v>98.871671651399325</v>
+        <v>98.874664974390896</v>
       </c>
       <c r="G30" s="26">
-        <v>67201.097788023093</v>
+        <v>67203.1342672873</v>
       </c>
       <c r="H30" s="26">
-        <v>67968</v>
+        <v>67968.001999999993</v>
       </c>
       <c r="I30" s="27">
-        <v>5.4859875946898597</v>
+        <v>5.4854945206422299</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="29"/>
       <c r="M30" s="26">
-        <v>20.459356561933774</v>
+        <v>20.459355653856047</v>
       </c>
       <c r="N30" s="26">
         <v>189.5359342915811</v>
@@ -3749,55 +3749,55 @@
         <v>75</v>
       </c>
       <c r="Q30" s="30">
-        <v>5.2025496361643411</v>
+        <v>5.2025235607267222</v>
       </c>
       <c r="R30" s="30">
-        <v>4.1521023336663738</v>
+        <v>4.1521007288984277</v>
       </c>
       <c r="S30" s="30">
-        <v>2.3816899613857998E-2</v>
+        <v>2.3804432792151199E-2</v>
       </c>
       <c r="T30" s="30">
-        <v>0.15361562275216101</v>
+        <v>0.15360748221267198</v>
       </c>
       <c r="U30" s="30">
-        <v>0.873014780131948</v>
+        <v>0.87301091682347109</v>
       </c>
       <c r="V30" s="30">
-        <v>0.9443736310451889</v>
+        <v>0.94442241751585099</v>
       </c>
       <c r="W30" s="23">
-        <v>4.3548227195997704</v>
+        <v>4.3551292135463502</v>
       </c>
       <c r="X30" s="23">
-        <v>3.082417139051751</v>
+        <v>3.0811604291601089</v>
       </c>
       <c r="Y30" s="23">
-        <v>0.50164481170454012</v>
+        <v>0.50467105232080978</v>
       </c>
       <c r="Z30" s="31">
-        <v>3.8125121790229502E-3</v>
+        <v>3.8024886358439401E-3</v>
       </c>
       <c r="AA30" s="23">
-        <v>0.72027847107890397</v>
+        <v>0.72057279142717301</v>
       </c>
       <c r="AB30" s="23">
-        <v>3.5342399350896874</v>
+        <v>3.5344377867242085</v>
       </c>
       <c r="AC30" s="23">
-        <v>12.756157678913699</v>
+        <v>12.7486430815656</v>
       </c>
       <c r="AD30" s="23">
-        <v>15.187928751441099</v>
+        <v>15.1888858172317</v>
       </c>
       <c r="AE30" s="23">
-        <v>0.104020539981643</v>
+        <v>0.10401471413918899</v>
       </c>
       <c r="AF30" s="23">
-        <v>0.21056123071069299</v>
+        <v>0.21057113874177899</v>
       </c>
       <c r="AG30" s="26">
-        <v>379.63199562389298</v>
+        <v>379.68902092132697</v>
       </c>
     </row>
     <row r="31" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3808,19 +3808,19 @@
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="23">
-        <v>98.400258136776003</v>
+        <v>98.399833630898215</v>
       </c>
       <c r="F31" s="23">
-        <v>98.095109145730774</v>
+        <v>98.094685196106425</v>
       </c>
       <c r="G31" s="26">
-        <v>933.86543906735892</v>
+        <v>933.863364960637</v>
       </c>
       <c r="H31" s="26">
-        <v>952.00000000000193</v>
+        <v>952.00199999999995</v>
       </c>
       <c r="I31" s="27">
-        <v>4.9333783253018302</v>
+        <v>4.9353707240110802</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
@@ -3838,55 +3838,55 @@
         <v>75</v>
       </c>
       <c r="Q31" s="30">
-        <v>6.3366871532537035</v>
+        <v>6.3367118070039403</v>
       </c>
       <c r="R31" s="30">
-        <v>4.3687399911806866</v>
+        <v>4.3687414082906155</v>
       </c>
       <c r="S31" s="30">
-        <v>6.1219004540595303E-6</v>
+        <v>6.1204679646547695E-6</v>
       </c>
       <c r="T31" s="30">
-        <v>0.60477058314112297</v>
+        <v>0.604781930630931</v>
       </c>
       <c r="U31" s="30">
-        <v>1.36317045703144</v>
+        <v>1.3631823476144298</v>
       </c>
       <c r="V31" s="30">
-        <v>1.2872443210447699</v>
+        <v>1.28725564082439</v>
       </c>
       <c r="W31" s="23">
-        <v>1.6779531573206301</v>
+        <v>1.6779457853616899</v>
       </c>
       <c r="X31" s="23">
-        <v>0.53973025381939643</v>
+        <v>0.53971916194313363</v>
       </c>
       <c r="Y31" s="23">
-        <v>1.8502716429935586E-2</v>
+        <v>1.8502126358127716E-2</v>
       </c>
       <c r="Z31" s="31">
-        <v>-6.44831771502652E-3</v>
+        <v>-6.4517178155618091E-3</v>
       </c>
       <c r="AA31" s="23">
-        <v>0.56652014954945684</v>
+        <v>0.56651703915181495</v>
       </c>
       <c r="AB31" s="23">
-        <v>1.4955239353276097</v>
+        <v>1.49551594959012</v>
       </c>
       <c r="AC31" s="23">
-        <v>24.998430222486199</v>
+        <v>24.9984302475041</v>
       </c>
       <c r="AD31" s="23">
-        <v>24.997919393146901</v>
+        <v>24.997919400541495</v>
       </c>
       <c r="AE31" s="23">
-        <v>0.699666213330427</v>
+        <v>0.69966870098936806</v>
       </c>
       <c r="AF31" s="23">
-        <v>0.56145287830436996</v>
+        <v>0.56146065878790197</v>
       </c>
       <c r="AG31" s="26">
-        <v>8.8114337810901002</v>
+        <v>8.8115483428346995</v>
       </c>
     </row>
     <row r="32" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3969,19 +3969,19 @@
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="23">
-        <v>99.578992879836207</v>
+        <v>99.582103455405402</v>
       </c>
       <c r="F34" s="23">
-        <v>98.670255138894973</v>
+        <v>98.67335445215673</v>
       </c>
       <c r="G34" s="26">
-        <v>8613.9132736255397</v>
+        <v>8614.17002940366</v>
       </c>
       <c r="H34" s="26">
-        <v>8730.0000000000091</v>
+        <v>8729.9860000000008</v>
       </c>
       <c r="I34" s="27">
-        <v>5.0943693048893604</v>
+        <v>5.0956739060062599</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
@@ -3999,40 +3999,40 @@
         <v>75</v>
       </c>
       <c r="Q34" s="30">
-        <v>5.3963245946717731</v>
+        <v>5.3963140937163825</v>
       </c>
       <c r="R34" s="30">
-        <v>4.142630723775051</v>
+        <v>4.1426295748090247</v>
       </c>
       <c r="S34" s="30">
-        <v>1.2573588166587301E-5</v>
+        <v>1.25756168998307E-5</v>
       </c>
       <c r="T34" s="30">
-        <v>0.256840756831273</v>
+        <v>0.25683635898505303</v>
       </c>
       <c r="U34" s="30">
-        <v>0.9968405404772821</v>
+        <v>0.99683558430540498</v>
       </c>
       <c r="V34" s="30">
-        <v>1.05372086324134</v>
+        <v>1.05371923050123</v>
       </c>
       <c r="W34" s="23">
-        <v>5.9446741166168904</v>
+        <v>5.9447526960228503</v>
       </c>
       <c r="X34" s="23">
-        <v>3.3782100983205994</v>
+        <v>3.3782365009505448</v>
       </c>
       <c r="Y34" s="23">
-        <v>0.29081517083314035</v>
+        <v>0.29081779367402461</v>
       </c>
       <c r="Z34" s="31">
         <v>0</v>
       </c>
       <c r="AA34" s="23">
-        <v>0.89466029046083895</v>
+        <v>0.89472659758723105</v>
       </c>
       <c r="AB34" s="23">
-        <v>4.4826161599567813</v>
+        <v>4.482614428805034</v>
       </c>
       <c r="AC34" s="23">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG34" s="26">
-        <v>98.639329401815189</v>
+        <v>98.640393685929695</v>
       </c>
     </row>
     <row r="35" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4058,19 +4058,19 @@
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="23">
-        <v>99.578992879843597</v>
+        <v>99.582065858998106</v>
       </c>
       <c r="F35" s="23">
-        <v>98.670255138895399</v>
+        <v>98.673306702962932</v>
       </c>
       <c r="G35" s="26">
-        <v>537.75289050697893</v>
+        <v>537.77050826421498</v>
       </c>
       <c r="H35" s="26">
-        <v>544.99999999999898</v>
+        <v>545.00099999999998</v>
       </c>
       <c r="I35" s="27">
-        <v>5.0943693048893604</v>
+        <v>5.0956567235656403</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
@@ -4088,40 +4088,40 @@
         <v>75</v>
       </c>
       <c r="Q35" s="30">
-        <v>5.3963245946717731</v>
+        <v>5.3963080952065106</v>
       </c>
       <c r="R35" s="30">
-        <v>4.142630723775051</v>
+        <v>4.1426236521883553</v>
       </c>
       <c r="S35" s="30">
-        <v>1.2573588166587399E-5</v>
+        <v>1.2575327156494599E-5</v>
       </c>
       <c r="T35" s="30">
-        <v>0.256840756831273</v>
+        <v>0.25683640235123095</v>
       </c>
       <c r="U35" s="30">
-        <v>0.9968405404772821</v>
+        <v>0.99683546533976797</v>
       </c>
       <c r="V35" s="30">
-        <v>1.05372086324134</v>
+        <v>1.0537198429440799</v>
       </c>
       <c r="W35" s="23">
-        <v>5.9446741166168904</v>
+        <v>5.9448229618482902</v>
       </c>
       <c r="X35" s="23">
-        <v>3.37821009832115</v>
+        <v>3.3782168164369812</v>
       </c>
       <c r="Y35" s="23">
-        <v>0.29081517083808739</v>
+        <v>0.29081635481464457</v>
       </c>
       <c r="Z35" s="31">
         <v>0</v>
       </c>
       <c r="AA35" s="23">
-        <v>0.89466029046100903</v>
+        <v>0.89473800972485495</v>
       </c>
       <c r="AB35" s="23">
-        <v>4.4826161599575922</v>
+        <v>4.482667689529829</v>
       </c>
       <c r="AC35" s="23">
         <v>0</v>
@@ -4136,7 +4136,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG35" s="26">
-        <v>6.1578962799527002</v>
+        <v>6.1580526945178997</v>
       </c>
     </row>
     <row r="36" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4219,19 +4219,19 @@
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="23">
-        <v>102.622871083501</v>
+        <v>102.62005789186701</v>
       </c>
       <c r="F38" s="23">
-        <v>102.15536135707683</v>
+        <v>102.15255667492437</v>
       </c>
       <c r="G38" s="26">
-        <v>908.161162464413</v>
+        <v>908.13929341677795</v>
       </c>
       <c r="H38" s="26">
-        <v>889</v>
+        <v>889.00300000000004</v>
       </c>
       <c r="I38" s="27">
-        <v>5.9597848507291804</v>
+        <v>5.9587775406832204</v>
       </c>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
@@ -4249,40 +4249,40 @@
         <v>75</v>
       </c>
       <c r="Q38" s="30">
-        <v>5.5983548261547842</v>
+        <v>5.5983728831140294</v>
       </c>
       <c r="R38" s="30">
-        <v>4.3591729506329164</v>
+        <v>4.3591801927679663</v>
       </c>
       <c r="S38" s="30">
-        <v>9.8656761712108903E-7</v>
+        <v>9.8753862510948229E-7</v>
       </c>
       <c r="T38" s="30">
-        <v>0.25089311621988403</v>
+        <v>0.25089826827778899</v>
       </c>
       <c r="U38" s="30">
-        <v>0.98828777273436696</v>
+        <v>0.98829343452964891</v>
       </c>
       <c r="V38" s="30">
-        <v>0.97299086192756001</v>
+        <v>0.97299473098579592</v>
       </c>
       <c r="W38" s="23">
-        <v>3.1968617779302</v>
+        <v>3.1964882587399099</v>
       </c>
       <c r="X38" s="23">
-        <v>2.0654883273848426</v>
+        <v>2.0653258357402233</v>
       </c>
       <c r="Y38" s="23">
-        <v>0.17305147130745646</v>
+        <v>0.17302247187219372</v>
       </c>
       <c r="Z38" s="31">
         <v>0</v>
       </c>
       <c r="AA38" s="23">
-        <v>0.62101942404989796</v>
+        <v>0.62085021618730596</v>
       </c>
       <c r="AB38" s="23">
-        <v>2.400411554646702</v>
+        <v>2.4002601670448245</v>
       </c>
       <c r="AC38" s="23">
         <v>0</v>
@@ -4297,7 +4297,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG38" s="26">
-        <v>5.1676098078577999</v>
+        <v>5.1675331865108003</v>
       </c>
     </row>
     <row r="39" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4380,25 +4380,25 @@
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="23">
-        <v>102.101040655283</v>
+        <v>102.100194568162</v>
       </c>
       <c r="F41" s="23">
-        <v>101.35419925208556</v>
+        <v>101.35335488798236</v>
       </c>
       <c r="G41" s="26">
-        <v>6243.4186739284605</v>
+        <v>6243.3605798984199</v>
       </c>
       <c r="H41" s="26">
-        <v>6159.99999999999</v>
+        <v>6159.9939999999997</v>
       </c>
       <c r="I41" s="27">
-        <v>5.7453444984279898</v>
+        <v>5.7454596709022798</v>
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
       <c r="L41" s="29"/>
       <c r="M41" s="26">
-        <v>19.993506493506487</v>
+        <v>19.993506487181648</v>
       </c>
       <c r="N41" s="26">
         <v>67.876796714579058</v>
@@ -4410,55 +4410,55 @@
         <v>75</v>
       </c>
       <c r="Q41" s="30">
-        <v>5.702749196560041</v>
+        <v>5.702758398465841</v>
       </c>
       <c r="R41" s="30">
-        <v>4.2560195637814697</v>
+        <v>4.2560248424168945</v>
       </c>
       <c r="S41" s="30">
-        <v>-5.3544040998382497E-6</v>
+        <v>-5.3533296544575997E-6</v>
       </c>
       <c r="T41" s="30">
-        <v>0.35114999611728104</v>
+        <v>0.35115193590773097</v>
       </c>
       <c r="U41" s="30">
-        <v>1.0955849910653901</v>
+        <v>1.0955869734708701</v>
       </c>
       <c r="V41" s="30">
-        <v>1.1431911200460902</v>
+        <v>1.14319506292705</v>
       </c>
       <c r="W41" s="23">
-        <v>5.1220700646937898</v>
+        <v>5.1218040237464697</v>
       </c>
       <c r="X41" s="23">
-        <v>3.1011331812586884</v>
+        <v>3.1010293443398789</v>
       </c>
       <c r="Y41" s="23">
-        <v>0.29058050794622858</v>
+        <v>0.29056224435422501</v>
       </c>
       <c r="Z41" s="31">
-        <v>-1.9707618045843699E-6</v>
+        <v>-1.9707801423840202E-6</v>
       </c>
       <c r="AA41" s="23">
-        <v>0.89413231091337986</v>
+        <v>0.89401370055280704</v>
       </c>
       <c r="AB41" s="23">
-        <v>3.7612357423675409</v>
+        <v>3.7611360740367008</v>
       </c>
       <c r="AC41" s="23">
         <v>0</v>
       </c>
       <c r="AD41" s="23">
-        <v>1.09433954772727E-2</v>
+        <v>1.09434061364345E-2</v>
       </c>
       <c r="AE41" s="23">
-        <v>0.34408824675324701</v>
+        <v>0.34408824664439602</v>
       </c>
       <c r="AF41" s="23">
-        <v>0.34408824675324701</v>
+        <v>0.34408824664439602</v>
       </c>
       <c r="AG41" s="26">
-        <v>79.806828527229797</v>
+        <v>79.806566672555803</v>
       </c>
     </row>
     <row r="42" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4541,19 +4541,19 @@
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="23">
-        <v>101.213966548915</v>
+        <v>101.213542697444</v>
       </c>
       <c r="F44" s="23">
-        <v>100.87923331370857</v>
+        <v>100.87881011518799</v>
       </c>
       <c r="G44" s="26">
-        <v>6580.3523890532097</v>
+        <v>6580.3227662375102</v>
       </c>
       <c r="H44" s="26">
-        <v>6523</v>
+        <v>6522.9979999999996</v>
       </c>
       <c r="I44" s="27">
-        <v>7.1816729908963888</v>
+        <v>7.1812972731250202</v>
       </c>
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
@@ -4571,55 +4571,55 @@
         <v>75</v>
       </c>
       <c r="Q44" s="30">
-        <v>6.5892272550266107</v>
+        <v>6.589229295841716</v>
       </c>
       <c r="R44" s="30">
-        <v>4.351300976343901</v>
+        <v>4.3513012185054025</v>
       </c>
       <c r="S44" s="30">
-        <v>6.0576544097774201E-6</v>
+        <v>6.0613370180175905E-6</v>
       </c>
       <c r="T44" s="30">
-        <v>0.72693275788880996</v>
+        <v>0.72693360669120588</v>
       </c>
       <c r="U44" s="30">
-        <v>1.51098746313949</v>
+        <v>1.5109884093080899</v>
       </c>
       <c r="V44" s="30">
-        <v>1.4451307790975201</v>
+        <v>1.4451313645652397</v>
       </c>
       <c r="W44" s="23">
-        <v>1.8609212330096501</v>
+        <v>1.8609186464577703</v>
       </c>
       <c r="X44" s="23">
-        <v>1.6182438202753942</v>
+        <v>1.6182426035666528</v>
       </c>
       <c r="Y44" s="23">
-        <v>5.8735142398805271E-2</v>
+        <v>5.8735110424393423E-2</v>
       </c>
       <c r="Z44" s="31">
-        <v>4.2122401631712299E-3</v>
+        <v>4.2113311569417699E-3</v>
       </c>
       <c r="AA44" s="23">
-        <v>0.69388871606443714</v>
+        <v>0.69388376892128201</v>
       </c>
       <c r="AB44" s="23">
-        <v>1.6399939177950049</v>
+        <v>1.6399928074348953</v>
       </c>
       <c r="AC44" s="23">
-        <v>17.999198442357297</v>
+        <v>17.999198439449401</v>
       </c>
       <c r="AD44" s="23">
-        <v>17.9984529360826</v>
+        <v>17.998452931897798</v>
       </c>
       <c r="AE44" s="23">
-        <v>0.63598134337104595</v>
+        <v>0.63598123215822899</v>
       </c>
       <c r="AF44" s="23">
-        <v>0.71459215472235404</v>
+        <v>0.71459068465686304</v>
       </c>
       <c r="AG44" s="26">
-        <v>83.988581280998204</v>
+        <v>83.988175963911601</v>
       </c>
     </row>
     <row r="45" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4630,19 +4630,19 @@
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="23">
-        <v>97.1075091678738</v>
+        <v>97.105756262783402</v>
       </c>
       <c r="F45" s="23">
-        <v>96.737655527489395</v>
+        <v>96.735906588263248</v>
       </c>
       <c r="G45" s="26">
-        <v>3372.2746716882803</v>
+        <v>3372.2175731031202</v>
       </c>
       <c r="H45" s="26">
-        <v>3486</v>
+        <v>3486.0039999999999</v>
       </c>
       <c r="I45" s="27">
-        <v>7.5886250947645202</v>
+        <v>7.5874029088893788</v>
       </c>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
@@ -4660,46 +4660,46 @@
         <v>75</v>
       </c>
       <c r="Q45" s="30">
-        <v>9.3901492034319105</v>
+        <v>9.3902047834774596</v>
       </c>
       <c r="R45" s="30">
-        <v>4.3445050875693312</v>
+        <v>4.3445068657615922</v>
       </c>
       <c r="S45" s="30">
-        <v>4.8200102719598194E-5</v>
+        <v>4.8191252747650805E-5</v>
       </c>
       <c r="T45" s="30">
-        <v>1.9973049463784505</v>
+        <v>1.9973309067038401</v>
       </c>
       <c r="U45" s="30">
-        <v>3.04829096938141</v>
+        <v>3.0483188197592805</v>
       </c>
       <c r="V45" s="30">
-        <v>3.0143493975329401</v>
+        <v>3.0143747668268301</v>
       </c>
       <c r="W45" s="23">
-        <v>2.1731775804642401</v>
+        <v>2.1731593716949602</v>
       </c>
       <c r="X45" s="23">
-        <v>1.7619214668464083</v>
+        <v>1.7619132951947705</v>
       </c>
       <c r="Y45" s="23">
-        <v>7.4539261556943515E-2</v>
+        <v>7.4538964508615399E-2</v>
       </c>
       <c r="Z45" s="31">
-        <v>-6.0868130682029701E-3</v>
+        <v>-6.0890090213270602E-3</v>
       </c>
       <c r="AA45" s="23">
-        <v>1.3827570815693699</v>
+        <v>1.38274567436388</v>
       </c>
       <c r="AB45" s="23">
-        <v>1.7961618245355815</v>
+        <v>1.7961538631362128</v>
       </c>
       <c r="AC45" s="23">
-        <v>9.9990508129879707</v>
+        <v>9.9990507985834594</v>
       </c>
       <c r="AD45" s="23">
-        <v>9.9983887886136387</v>
+        <v>9.9983887737570587</v>
       </c>
       <c r="AE45" s="23">
         <v>1.8504750000000001</v>
@@ -4708,7 +4708,7 @@
         <v>1.8504750000000001</v>
       </c>
       <c r="AG45" s="26">
-        <v>120.662437716049</v>
+        <v>120.661282327419</v>
       </c>
     </row>
     <row r="46" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6144,14 +6144,14 @@
         <v>78</v>
       </c>
       <c r="B1" s="5">
-        <v>1722.6846449370692</v>
+        <v>1722.7009999999996</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5">
-        <v>106496.99999999936</v>
+        <v>106497.01700000012</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -6167,7 +6167,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="5">
-        <v>2737.3153550629308</v>
+        <v>2737.317</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
@@ -6184,7 +6184,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="5">
-        <v>4841.4116827705684</v>
+        <v>4841.4130000000123</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
@@ -6201,7 +6201,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="5">
-        <v>9986.5883172294616</v>
+        <v>9986.5859999999957</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
@@ -6218,7 +6218,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="5">
-        <v>2787.250036395561</v>
+        <v>2787.2540000000013</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -6235,7 +6235,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="5">
-        <v>3356.7246306163147</v>
+        <v>3356.723</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6252,7 +6252,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="5">
-        <v>372.96940340181288</v>
+        <v>372.96900000000005</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -6269,7 +6269,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="5">
-        <v>32306.502930843129</v>
+        <v>32306.501</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6286,7 +6286,7 @@
         <v>86</v>
       </c>
       <c r="B9" s="5">
-        <v>13153.803035138721</v>
+        <v>13153.802000000001</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6303,7 +6303,7 @@
         <v>87</v>
       </c>
       <c r="B10" s="5">
-        <v>17768.503760350522</v>
+        <v>17768.510999999988</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6320,7 +6320,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="5">
-        <v>867.33197214497</v>
+        <v>867.33199999999999</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6337,7 +6337,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="5">
-        <v>142.164267504485</v>
+        <v>142.16399999999999</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6354,7 +6354,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="5">
-        <v>284.7499636044343</v>
+        <v>284.74799999999999</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6371,7 +6371,7 @@
         <v>91</v>
       </c>
       <c r="B14" s="5">
-        <v>3917.6850969277602</v>
+        <v>3917.6839999999993</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -6388,7 +6388,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="5">
-        <v>2242.3149030722398</v>
+        <v>2242.31</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -6405,7 +6405,7 @@
         <v>93</v>
       </c>
       <c r="B16" s="5">
-        <v>6522.9999999999991</v>
+        <v>6522.9979999999996</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6422,7 +6422,7 @@
         <v>94</v>
       </c>
       <c r="B17" s="5">
-        <v>108.96133708656167</v>
+        <v>108.96300000000001</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -6439,7 +6439,7 @@
         <v>95</v>
       </c>
       <c r="B18" s="5">
-        <v>3377.0386629134391</v>
+        <v>3377.0409999999997</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6470,23 +6470,23 @@
       </c>
       <c r="E101" s="5">
         <f>'Mortgage Performance'!E20</f>
-        <v>99.212071404996806</v>
+        <v>99.212734979840505</v>
       </c>
       <c r="F101" s="5">
         <f>'Mortgage Performance'!F20</f>
-        <v>98.768215777758741</v>
+        <v>98.768878254547104</v>
       </c>
       <c r="G101" s="5">
         <f>'Mortgage Performance'!G20</f>
-        <v>2087.9600815418198</v>
+        <v>2087.96025865817</v>
       </c>
       <c r="H101" s="5">
         <f>'Mortgage Performance'!H20</f>
-        <v>2114</v>
+        <v>2113.9859999999999</v>
       </c>
       <c r="I101" s="5">
         <f>'Mortgage Performance'!I20</f>
-        <v>5.2443018518761297</v>
+        <v>5.2454573445614097</v>
       </c>
       <c r="J101" s="5">
         <f>'Mortgage Performance'!J20</f>
@@ -6518,39 +6518,39 @@
       </c>
       <c r="Q101" s="5">
         <f>'Mortgage Performance'!Q20</f>
-        <v>6.2474205999895931</v>
+        <v>6.2474228625243491</v>
       </c>
       <c r="R101" s="5">
         <f>'Mortgage Performance'!R20</f>
-        <v>4.4752719868617419</v>
+        <v>4.4752752283464492</v>
       </c>
       <c r="S101" s="5">
         <f>'Mortgage Performance'!S20</f>
-        <v>6.9463502681465999E-6</v>
+        <v>6.9449225704480598E-6</v>
       </c>
       <c r="T101" s="5">
         <f>'Mortgage Performance'!T20</f>
-        <v>0.50383175491501309</v>
+        <v>0.50383124769135901</v>
       </c>
       <c r="U101" s="5">
         <f>'Mortgage Performance'!U20</f>
-        <v>1.26830991186257</v>
+        <v>1.26830944156397</v>
       </c>
       <c r="V101" s="5">
         <f>'Mortgage Performance'!V20</f>
-        <v>1.3117858066965999</v>
+        <v>1.3117859874317701</v>
       </c>
       <c r="W101" s="5">
         <f>'Mortgage Performance'!W20</f>
-        <v>2.8366227418433998</v>
+        <v>2.8365596159579001</v>
       </c>
       <c r="X101" s="5">
         <f>'Mortgage Performance'!X20</f>
-        <v>1.3267147205608412</v>
+        <v>1.326686230481823</v>
       </c>
       <c r="Y101" s="5">
         <f>'Mortgage Performance'!Y20</f>
-        <v>5.9714635642546178E-2</v>
+        <v>5.9710797456587389E-2</v>
       </c>
       <c r="Z101" s="5">
         <f>'Mortgage Performance'!Z20</f>
@@ -6558,11 +6558,11 @@
       </c>
       <c r="AA101" s="5">
         <f>'Mortgage Performance'!AA20</f>
-        <v>0.70302047147079605</v>
+        <v>0.70298976286882198</v>
       </c>
       <c r="AB101" s="5">
         <f>'Mortgage Performance'!AB20</f>
-        <v>2.2221675231639648</v>
+        <v>2.2221312471468977</v>
       </c>
       <c r="AC101" s="5">
         <f>'Mortgage Performance'!AC20</f>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="AG101" s="5">
         <f>'Mortgage Performance'!AG20</f>
-        <v>22.847731023452603</v>
+        <v>22.8476362362094</v>
       </c>
       <c r="AH101" s="5">
         <f>'Mortgage Performance'!AH20</f>
@@ -6673,23 +6673,23 @@
       </c>
       <c r="E102" s="5">
         <f>'Mortgage Performance'!E21</f>
-        <v>99.212071404996806</v>
+        <v>99.212738848672302</v>
       </c>
       <c r="F102" s="5">
         <f>'Mortgage Performance'!F21</f>
-        <v>98.768215777758741</v>
+        <v>98.768880797588849</v>
       </c>
       <c r="G102" s="5">
         <f>'Mortgage Performance'!G21</f>
-        <v>2317.1023421462201</v>
+        <v>2317.1495495532899</v>
       </c>
       <c r="H102" s="5">
         <f>'Mortgage Performance'!H21</f>
-        <v>2346</v>
+        <v>2346.0320000000002</v>
       </c>
       <c r="I102" s="5">
         <f>'Mortgage Performance'!I21</f>
-        <v>5.2443018518761404</v>
+        <v>5.2454566476501601</v>
       </c>
       <c r="J102" s="5">
         <f>'Mortgage Performance'!J21</f>
@@ -6721,39 +6721,39 @@
       </c>
       <c r="Q102" s="5">
         <f>'Mortgage Performance'!Q21</f>
-        <v>6.2474205999895922</v>
+        <v>6.2474194862678676</v>
       </c>
       <c r="R102" s="5">
         <f>'Mortgage Performance'!R21</f>
-        <v>4.475271986861741</v>
+        <v>4.475272408022712</v>
       </c>
       <c r="S102" s="5">
         <f>'Mortgage Performance'!S21</f>
-        <v>6.9463502681465398E-6</v>
+        <v>6.9440002787727696E-6</v>
       </c>
       <c r="T102" s="5">
         <f>'Mortgage Performance'!T21</f>
-        <v>0.50383175491501309</v>
+        <v>0.50383118161462692</v>
       </c>
       <c r="U102" s="5">
         <f>'Mortgage Performance'!U21</f>
-        <v>1.26830991186257</v>
+        <v>1.26830895263025</v>
       </c>
       <c r="V102" s="5">
         <f>'Mortgage Performance'!V21</f>
-        <v>1.3117858066965999</v>
+        <v>1.3117855745159401</v>
       </c>
       <c r="W102" s="5">
         <f>'Mortgage Performance'!W21</f>
-        <v>2.83662274184339</v>
+        <v>2.83656482304497</v>
       </c>
       <c r="X102" s="5">
         <f>'Mortgage Performance'!X21</f>
-        <v>1.3267147205580314</v>
+        <v>1.3266757920168988</v>
       </c>
       <c r="Y102" s="5">
         <f>'Mortgage Performance'!Y21</f>
-        <v>5.9714635639094509E-2</v>
+        <v>5.9709963876272851E-2</v>
       </c>
       <c r="Z102" s="5">
         <f>'Mortgage Performance'!Z21</f>
@@ -6761,11 +6761,11 @@
       </c>
       <c r="AA102" s="5">
         <f>'Mortgage Performance'!AA21</f>
-        <v>0.70302047147079505</v>
+        <v>0.70299313852782097</v>
       </c>
       <c r="AB102" s="5">
         <f>'Mortgage Performance'!AB21</f>
-        <v>2.2221675231642473</v>
+        <v>2.222139117260435</v>
       </c>
       <c r="AC102" s="5">
         <f>'Mortgage Performance'!AC21</f>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="AG102" s="5">
         <f>'Mortgage Performance'!AG21</f>
-        <v>25.355145213348003</v>
+        <v>25.3556295265683</v>
       </c>
       <c r="AH102" s="5">
         <f>'Mortgage Performance'!AH21</f>
@@ -6876,23 +6876,23 @@
       </c>
       <c r="E103" s="5">
         <f>'Mortgage Performance'!E24</f>
-        <v>99.519388345804899</v>
+        <v>99.5226754005988</v>
       </c>
       <c r="F103" s="5">
         <f>'Mortgage Performance'!F24</f>
-        <v>98.5911381616977</v>
+        <v>98.59441236225959</v>
       </c>
       <c r="G103" s="5">
         <f>'Mortgage Performance'!G24</f>
-        <v>4598.2906838615709</v>
+        <v>4598.4522660728999</v>
       </c>
       <c r="H103" s="5">
         <f>'Mortgage Performance'!H24</f>
-        <v>4663.99999999999</v>
+        <v>4664.009</v>
       </c>
       <c r="I103" s="5">
         <f>'Mortgage Performance'!I24</f>
-        <v>5.0943693048893604</v>
+        <v>5.0956662154811498</v>
       </c>
       <c r="J103" s="5">
         <f>'Mortgage Performance'!J24</f>
@@ -6924,39 +6924,39 @@
       </c>
       <c r="Q103" s="5">
         <f>'Mortgage Performance'!Q24</f>
-        <v>5.402331431479805</v>
+        <v>5.4023186077424832</v>
       </c>
       <c r="R103" s="5">
         <f>'Mortgage Performance'!R24</f>
-        <v>4.147589740521533</v>
+        <v>4.1475870670627524</v>
       </c>
       <c r="S103" s="5">
         <f>'Mortgage Performance'!S24</f>
-        <v>4.9118613500626001E-6</v>
+        <v>4.9143715749702596E-6</v>
       </c>
       <c r="T103" s="5">
         <f>'Mortgage Performance'!T24</f>
-        <v>0.25715128105941504</v>
+        <v>0.25714654838108303</v>
       </c>
       <c r="U103" s="5">
         <f>'Mortgage Performance'!U24</f>
-        <v>0.99758549803750707</v>
+        <v>0.99758007792707204</v>
       </c>
       <c r="V103" s="5">
         <f>'Mortgage Performance'!V24</f>
-        <v>1.05266712765651</v>
+        <v>1.0526655140469199</v>
       </c>
       <c r="W103" s="5">
         <f>'Mortgage Performance'!W24</f>
-        <v>6.0582203141602102</v>
+        <v>6.0583001199961899</v>
       </c>
       <c r="X103" s="5">
         <f>'Mortgage Performance'!X24</f>
-        <v>3.4764365621771942</v>
+        <v>3.4764546208484171</v>
       </c>
       <c r="Y103" s="5">
         <f>'Mortgage Performance'!Y24</f>
-        <v>0.29559483893972627</v>
+        <v>0.29559646010224178</v>
       </c>
       <c r="Z103" s="5">
         <f>'Mortgage Performance'!Z24</f>
@@ -6964,11 +6964,11 @@
       </c>
       <c r="AA103" s="5">
         <f>'Mortgage Performance'!AA24</f>
-        <v>0.91398811807071101</v>
+        <v>0.91405837057620287</v>
       </c>
       <c r="AB103" s="5">
         <f>'Mortgage Performance'!AB24</f>
-        <v>4.5817288826698128</v>
+        <v>4.5817283401797289</v>
       </c>
       <c r="AC103" s="5">
         <f>'Mortgage Performance'!AC24</f>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="AG103" s="5">
         <f>'Mortgage Performance'!AG24</f>
-        <v>53.8295671913042</v>
+        <v>53.830416486976098</v>
       </c>
       <c r="AH103" s="5">
         <f>'Mortgage Performance'!AH24</f>
@@ -7079,15 +7079,15 @@
       </c>
       <c r="E104" s="5">
         <f>'Mortgage Performance'!E27</f>
-        <v>105.817452264</v>
+        <v>105.8215182703</v>
       </c>
       <c r="F104" s="5">
         <f>'Mortgage Performance'!F27</f>
-        <v>105.37431546004056</v>
+        <v>105.37837510506792</v>
       </c>
       <c r="G104" s="5">
         <f>'Mortgage Performance'!G27</f>
-        <v>2233.9354877528599</v>
+        <v>2234.0215522274398</v>
       </c>
       <c r="H104" s="5">
         <f>'Mortgage Performance'!H27</f>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I104" s="5">
         <f>'Mortgage Performance'!I27</f>
-        <v>7.5150089605000003</v>
+        <v>7.52</v>
       </c>
       <c r="J104" s="5">
         <f>'Mortgage Performance'!J27</f>
@@ -7127,11 +7127,11 @@
       </c>
       <c r="Q104" s="5">
         <f>'Mortgage Performance'!Q27</f>
-        <v>6.2034345100000001</v>
+        <v>6.2034924499999997</v>
       </c>
       <c r="R104" s="5">
         <f>'Mortgage Performance'!R27</f>
-        <v>4.1873676400000006</v>
+        <v>4.1873702999999995</v>
       </c>
       <c r="S104" s="5">
         <f>'Mortgage Performance'!S27</f>
@@ -7139,43 +7139,43 @@
       </c>
       <c r="T104" s="5">
         <f>'Mortgage Performance'!T27</f>
-        <v>0.63733549999999994</v>
+        <v>0.63736212999999997</v>
       </c>
       <c r="U104" s="5">
         <f>'Mortgage Performance'!U27</f>
-        <v>1.37872499</v>
+        <v>1.37875364</v>
       </c>
       <c r="V104" s="5">
         <f>'Mortgage Performance'!V27</f>
-        <v>1.3096451099999999</v>
+        <v>1.3096840300000001</v>
       </c>
       <c r="W104" s="5">
         <f>'Mortgage Performance'!W27</f>
-        <v>2.5023486348000001</v>
+        <v>2.5023864995</v>
       </c>
       <c r="X104" s="5">
         <f>'Mortgage Performance'!X27</f>
-        <v>0.8587431879914289</v>
+        <v>0.85873410871172495</v>
       </c>
       <c r="Y104" s="5">
         <f>'Mortgage Performance'!Y27</f>
-        <v>1.2439742845200297E-2</v>
+        <v>1.2439555328228748E-2</v>
       </c>
       <c r="Z104" s="5">
         <f>'Mortgage Performance'!Z27</f>
-        <v>4.0296077700000002E-2</v>
+        <v>4.0299034800000001E-2</v>
       </c>
       <c r="AA104" s="5">
         <f>'Mortgage Performance'!AA27</f>
-        <v>1.0065241979999999</v>
+        <v>1.0065564402</v>
       </c>
       <c r="AB104" s="5">
         <f>'Mortgage Performance'!AB27</f>
-        <v>2.1929760418677398</v>
+        <v>2.1929389066235769</v>
       </c>
       <c r="AC104" s="5">
         <f>'Mortgage Performance'!AC27</f>
-        <v>24.999823229999997</v>
+        <v>24.999823269999997</v>
       </c>
       <c r="AD104" s="5">
         <f>'Mortgage Performance'!AD27</f>
@@ -7183,15 +7183,15 @@
       </c>
       <c r="AE104" s="5">
         <f>'Mortgage Performance'!AE27</f>
-        <v>0.77122710999999999</v>
+        <v>0.77122922000000005</v>
       </c>
       <c r="AF104" s="5">
         <f>'Mortgage Performance'!AF27</f>
-        <v>0.63499089000000009</v>
+        <v>0.63502430999999993</v>
       </c>
       <c r="AG104" s="5">
         <f>'Mortgage Performance'!AG27</f>
-        <v>30.866855823202098</v>
+        <v>30.8687700741859</v>
       </c>
       <c r="AH104" s="5">
         <f>'Mortgage Performance'!AH27</f>
@@ -7282,23 +7282,23 @@
       </c>
       <c r="E105" s="5">
         <f>'Mortgage Performance'!E30</f>
-        <v>99.616164868099801</v>
+        <v>99.619157479511401</v>
       </c>
       <c r="F105" s="5">
         <f>'Mortgage Performance'!F30</f>
-        <v>98.871671651399325</v>
+        <v>98.874664974390896</v>
       </c>
       <c r="G105" s="5">
         <f>'Mortgage Performance'!G30</f>
-        <v>67201.097788023093</v>
+        <v>67203.1342672873</v>
       </c>
       <c r="H105" s="5">
         <f>'Mortgage Performance'!H30</f>
-        <v>67968</v>
+        <v>67968.001999999993</v>
       </c>
       <c r="I105" s="5">
         <f>'Mortgage Performance'!I30</f>
-        <v>5.4859875946898597</v>
+        <v>5.4854945206422299</v>
       </c>
       <c r="J105" s="5">
         <f>'Mortgage Performance'!J30</f>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="M105" s="5">
         <f>'Mortgage Performance'!M30</f>
-        <v>20.459356561933774</v>
+        <v>20.459355653856047</v>
       </c>
       <c r="N105" s="5">
         <f>'Mortgage Performance'!N30</f>
@@ -7330,71 +7330,71 @@
       </c>
       <c r="Q105" s="5">
         <f>'Mortgage Performance'!Q30</f>
-        <v>5.2025496361643411</v>
+        <v>5.2025235607267222</v>
       </c>
       <c r="R105" s="5">
         <f>'Mortgage Performance'!R30</f>
-        <v>4.1521023336663738</v>
+        <v>4.1521007288984277</v>
       </c>
       <c r="S105" s="5">
         <f>'Mortgage Performance'!S30</f>
-        <v>2.3816899613857998E-2</v>
+        <v>2.3804432792151199E-2</v>
       </c>
       <c r="T105" s="5">
         <f>'Mortgage Performance'!T30</f>
-        <v>0.15361562275216101</v>
+        <v>0.15360748221267198</v>
       </c>
       <c r="U105" s="5">
         <f>'Mortgage Performance'!U30</f>
-        <v>0.873014780131948</v>
+        <v>0.87301091682347109</v>
       </c>
       <c r="V105" s="5">
         <f>'Mortgage Performance'!V30</f>
-        <v>0.9443736310451889</v>
+        <v>0.94442241751585099</v>
       </c>
       <c r="W105" s="5">
         <f>'Mortgage Performance'!W30</f>
-        <v>4.3548227195997704</v>
+        <v>4.3551292135463502</v>
       </c>
       <c r="X105" s="5">
         <f>'Mortgage Performance'!X30</f>
-        <v>3.082417139051751</v>
+        <v>3.0811604291601089</v>
       </c>
       <c r="Y105" s="5">
         <f>'Mortgage Performance'!Y30</f>
-        <v>0.50164481170454012</v>
+        <v>0.50467105232080978</v>
       </c>
       <c r="Z105" s="5">
         <f>'Mortgage Performance'!Z30</f>
-        <v>3.8125121790229502E-3</v>
+        <v>3.8024886358439401E-3</v>
       </c>
       <c r="AA105" s="5">
         <f>'Mortgage Performance'!AA30</f>
-        <v>0.72027847107890397</v>
+        <v>0.72057279142717301</v>
       </c>
       <c r="AB105" s="5">
         <f>'Mortgage Performance'!AB30</f>
-        <v>3.5342399350896874</v>
+        <v>3.5344377867242085</v>
       </c>
       <c r="AC105" s="5">
         <f>'Mortgage Performance'!AC30</f>
-        <v>12.756157678913699</v>
+        <v>12.7486430815656</v>
       </c>
       <c r="AD105" s="5">
         <f>'Mortgage Performance'!AD30</f>
-        <v>15.187928751441099</v>
+        <v>15.1888858172317</v>
       </c>
       <c r="AE105" s="5">
         <f>'Mortgage Performance'!AE30</f>
-        <v>0.104020539981643</v>
+        <v>0.10401471413918899</v>
       </c>
       <c r="AF105" s="5">
         <f>'Mortgage Performance'!AF30</f>
-        <v>0.21056123071069299</v>
+        <v>0.21057113874177899</v>
       </c>
       <c r="AG105" s="5">
         <f>'Mortgage Performance'!AG30</f>
-        <v>379.63199562389298</v>
+        <v>379.68902092132697</v>
       </c>
       <c r="AH105" s="5">
         <f>'Mortgage Performance'!AH30</f>
@@ -7485,23 +7485,23 @@
       </c>
       <c r="E106" s="5">
         <f>'Mortgage Performance'!E31</f>
-        <v>98.400258136776003</v>
+        <v>98.399833630898215</v>
       </c>
       <c r="F106" s="5">
         <f>'Mortgage Performance'!F31</f>
-        <v>98.095109145730774</v>
+        <v>98.094685196106425</v>
       </c>
       <c r="G106" s="5">
         <f>'Mortgage Performance'!G31</f>
-        <v>933.86543906735892</v>
+        <v>933.863364960637</v>
       </c>
       <c r="H106" s="5">
         <f>'Mortgage Performance'!H31</f>
-        <v>952.00000000000193</v>
+        <v>952.00199999999995</v>
       </c>
       <c r="I106" s="5">
         <f>'Mortgage Performance'!I31</f>
-        <v>4.9333783253018302</v>
+        <v>4.9353707240110802</v>
       </c>
       <c r="J106" s="5">
         <f>'Mortgage Performance'!J31</f>
@@ -7533,71 +7533,71 @@
       </c>
       <c r="Q106" s="5">
         <f>'Mortgage Performance'!Q31</f>
-        <v>6.3366871532537035</v>
+        <v>6.3367118070039403</v>
       </c>
       <c r="R106" s="5">
         <f>'Mortgage Performance'!R31</f>
-        <v>4.3687399911806866</v>
+        <v>4.3687414082906155</v>
       </c>
       <c r="S106" s="5">
         <f>'Mortgage Performance'!S31</f>
-        <v>6.1219004540595303E-6</v>
+        <v>6.1204679646547695E-6</v>
       </c>
       <c r="T106" s="5">
         <f>'Mortgage Performance'!T31</f>
-        <v>0.60477058314112297</v>
+        <v>0.604781930630931</v>
       </c>
       <c r="U106" s="5">
         <f>'Mortgage Performance'!U31</f>
-        <v>1.36317045703144</v>
+        <v>1.3631823476144298</v>
       </c>
       <c r="V106" s="5">
         <f>'Mortgage Performance'!V31</f>
-        <v>1.2872443210447699</v>
+        <v>1.28725564082439</v>
       </c>
       <c r="W106" s="5">
         <f>'Mortgage Performance'!W31</f>
-        <v>1.6779531573206301</v>
+        <v>1.6779457853616899</v>
       </c>
       <c r="X106" s="5">
         <f>'Mortgage Performance'!X31</f>
-        <v>0.53973025381939643</v>
+        <v>0.53971916194313363</v>
       </c>
       <c r="Y106" s="5">
         <f>'Mortgage Performance'!Y31</f>
-        <v>1.8502716429935586E-2</v>
+        <v>1.8502126358127716E-2</v>
       </c>
       <c r="Z106" s="5">
         <f>'Mortgage Performance'!Z31</f>
-        <v>-6.44831771502652E-3</v>
+        <v>-6.4517178155618091E-3</v>
       </c>
       <c r="AA106" s="5">
         <f>'Mortgage Performance'!AA31</f>
-        <v>0.56652014954945684</v>
+        <v>0.56651703915181495</v>
       </c>
       <c r="AB106" s="5">
         <f>'Mortgage Performance'!AB31</f>
-        <v>1.4955239353276097</v>
+        <v>1.49551594959012</v>
       </c>
       <c r="AC106" s="5">
         <f>'Mortgage Performance'!AC31</f>
-        <v>24.998430222486199</v>
+        <v>24.9984302475041</v>
       </c>
       <c r="AD106" s="5">
         <f>'Mortgage Performance'!AD31</f>
-        <v>24.997919393146901</v>
+        <v>24.997919400541495</v>
       </c>
       <c r="AE106" s="5">
         <f>'Mortgage Performance'!AE31</f>
-        <v>0.699666213330427</v>
+        <v>0.69966870098936806</v>
       </c>
       <c r="AF106" s="5">
         <f>'Mortgage Performance'!AF31</f>
-        <v>0.56145287830436996</v>
+        <v>0.56146065878790197</v>
       </c>
       <c r="AG106" s="5">
         <f>'Mortgage Performance'!AG31</f>
-        <v>8.8114337810901002</v>
+        <v>8.8115483428346995</v>
       </c>
       <c r="AH106" s="5">
         <f>'Mortgage Performance'!AH31</f>
@@ -7688,23 +7688,23 @@
       </c>
       <c r="E107" s="5">
         <f>'Mortgage Performance'!E34</f>
-        <v>99.578992879836207</v>
+        <v>99.582103455405402</v>
       </c>
       <c r="F107" s="5">
         <f>'Mortgage Performance'!F34</f>
-        <v>98.670255138894973</v>
+        <v>98.67335445215673</v>
       </c>
       <c r="G107" s="5">
         <f>'Mortgage Performance'!G34</f>
-        <v>8613.9132736255397</v>
+        <v>8614.17002940366</v>
       </c>
       <c r="H107" s="5">
         <f>'Mortgage Performance'!H34</f>
-        <v>8730.0000000000091</v>
+        <v>8729.9860000000008</v>
       </c>
       <c r="I107" s="5">
         <f>'Mortgage Performance'!I34</f>
-        <v>5.0943693048893604</v>
+        <v>5.0956739060062599</v>
       </c>
       <c r="J107" s="5">
         <f>'Mortgage Performance'!J34</f>
@@ -7736,39 +7736,39 @@
       </c>
       <c r="Q107" s="5">
         <f>'Mortgage Performance'!Q34</f>
-        <v>5.3963245946717731</v>
+        <v>5.3963140937163825</v>
       </c>
       <c r="R107" s="5">
         <f>'Mortgage Performance'!R34</f>
-        <v>4.142630723775051</v>
+        <v>4.1426295748090247</v>
       </c>
       <c r="S107" s="5">
         <f>'Mortgage Performance'!S34</f>
-        <v>1.2573588166587301E-5</v>
+        <v>1.25756168998307E-5</v>
       </c>
       <c r="T107" s="5">
         <f>'Mortgage Performance'!T34</f>
-        <v>0.256840756831273</v>
+        <v>0.25683635898505303</v>
       </c>
       <c r="U107" s="5">
         <f>'Mortgage Performance'!U34</f>
-        <v>0.9968405404772821</v>
+        <v>0.99683558430540498</v>
       </c>
       <c r="V107" s="5">
         <f>'Mortgage Performance'!V34</f>
-        <v>1.05372086324134</v>
+        <v>1.05371923050123</v>
       </c>
       <c r="W107" s="5">
         <f>'Mortgage Performance'!W34</f>
-        <v>5.9446741166168904</v>
+        <v>5.9447526960228503</v>
       </c>
       <c r="X107" s="5">
         <f>'Mortgage Performance'!X34</f>
-        <v>3.3782100983205994</v>
+        <v>3.3782365009505448</v>
       </c>
       <c r="Y107" s="5">
         <f>'Mortgage Performance'!Y34</f>
-        <v>0.29081517083314035</v>
+        <v>0.29081779367402461</v>
       </c>
       <c r="Z107" s="5">
         <f>'Mortgage Performance'!Z34</f>
@@ -7776,11 +7776,11 @@
       </c>
       <c r="AA107" s="5">
         <f>'Mortgage Performance'!AA34</f>
-        <v>0.89466029046083895</v>
+        <v>0.89472659758723105</v>
       </c>
       <c r="AB107" s="5">
         <f>'Mortgage Performance'!AB34</f>
-        <v>4.4826161599567813</v>
+        <v>4.482614428805034</v>
       </c>
       <c r="AC107" s="5">
         <f>'Mortgage Performance'!AC34</f>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="AG107" s="5">
         <f>'Mortgage Performance'!AG34</f>
-        <v>98.639329401815189</v>
+        <v>98.640393685929695</v>
       </c>
       <c r="AH107" s="5">
         <f>'Mortgage Performance'!AH34</f>
@@ -7891,23 +7891,23 @@
       </c>
       <c r="E108" s="5">
         <f>'Mortgage Performance'!E35</f>
-        <v>99.578992879843597</v>
+        <v>99.582065858998106</v>
       </c>
       <c r="F108" s="5">
         <f>'Mortgage Performance'!F35</f>
-        <v>98.670255138895399</v>
+        <v>98.673306702962932</v>
       </c>
       <c r="G108" s="5">
         <f>'Mortgage Performance'!G35</f>
-        <v>537.75289050697893</v>
+        <v>537.77050826421498</v>
       </c>
       <c r="H108" s="5">
         <f>'Mortgage Performance'!H35</f>
-        <v>544.99999999999898</v>
+        <v>545.00099999999998</v>
       </c>
       <c r="I108" s="5">
         <f>'Mortgage Performance'!I35</f>
-        <v>5.0943693048893604</v>
+        <v>5.0956567235656403</v>
       </c>
       <c r="J108" s="5">
         <f>'Mortgage Performance'!J35</f>
@@ -7939,39 +7939,39 @@
       </c>
       <c r="Q108" s="5">
         <f>'Mortgage Performance'!Q35</f>
-        <v>5.3963245946717731</v>
+        <v>5.3963080952065106</v>
       </c>
       <c r="R108" s="5">
         <f>'Mortgage Performance'!R35</f>
-        <v>4.142630723775051</v>
+        <v>4.1426236521883553</v>
       </c>
       <c r="S108" s="5">
         <f>'Mortgage Performance'!S35</f>
-        <v>1.2573588166587399E-5</v>
+        <v>1.2575327156494599E-5</v>
       </c>
       <c r="T108" s="5">
         <f>'Mortgage Performance'!T35</f>
-        <v>0.256840756831273</v>
+        <v>0.25683640235123095</v>
       </c>
       <c r="U108" s="5">
         <f>'Mortgage Performance'!U35</f>
-        <v>0.9968405404772821</v>
+        <v>0.99683546533976797</v>
       </c>
       <c r="V108" s="5">
         <f>'Mortgage Performance'!V35</f>
-        <v>1.05372086324134</v>
+        <v>1.0537198429440799</v>
       </c>
       <c r="W108" s="5">
         <f>'Mortgage Performance'!W35</f>
-        <v>5.9446741166168904</v>
+        <v>5.9448229618482902</v>
       </c>
       <c r="X108" s="5">
         <f>'Mortgage Performance'!X35</f>
-        <v>3.37821009832115</v>
+        <v>3.3782168164369812</v>
       </c>
       <c r="Y108" s="5">
         <f>'Mortgage Performance'!Y35</f>
-        <v>0.29081517083808739</v>
+        <v>0.29081635481464457</v>
       </c>
       <c r="Z108" s="5">
         <f>'Mortgage Performance'!Z35</f>
@@ -7979,11 +7979,11 @@
       </c>
       <c r="AA108" s="5">
         <f>'Mortgage Performance'!AA35</f>
-        <v>0.89466029046100903</v>
+        <v>0.89473800972485495</v>
       </c>
       <c r="AB108" s="5">
         <f>'Mortgage Performance'!AB35</f>
-        <v>4.4826161599575922</v>
+        <v>4.482667689529829</v>
       </c>
       <c r="AC108" s="5">
         <f>'Mortgage Performance'!AC35</f>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="AG108" s="5">
         <f>'Mortgage Performance'!AG35</f>
-        <v>6.1578962799527002</v>
+        <v>6.1580526945178997</v>
       </c>
       <c r="AH108" s="5">
         <f>'Mortgage Performance'!AH35</f>
@@ -8094,23 +8094,23 @@
       </c>
       <c r="E109" s="5">
         <f>'Mortgage Performance'!E38</f>
-        <v>102.622871083501</v>
+        <v>102.62005789186701</v>
       </c>
       <c r="F109" s="5">
         <f>'Mortgage Performance'!F38</f>
-        <v>102.15536135707683</v>
+        <v>102.15255667492437</v>
       </c>
       <c r="G109" s="5">
         <f>'Mortgage Performance'!G38</f>
-        <v>908.161162464413</v>
+        <v>908.13929341677795</v>
       </c>
       <c r="H109" s="5">
         <f>'Mortgage Performance'!H38</f>
-        <v>889</v>
+        <v>889.00300000000004</v>
       </c>
       <c r="I109" s="5">
         <f>'Mortgage Performance'!I38</f>
-        <v>5.9597848507291804</v>
+        <v>5.9587775406832204</v>
       </c>
       <c r="J109" s="5">
         <f>'Mortgage Performance'!J38</f>
@@ -8142,39 +8142,39 @@
       </c>
       <c r="Q109" s="5">
         <f>'Mortgage Performance'!Q38</f>
-        <v>5.5983548261547842</v>
+        <v>5.5983728831140294</v>
       </c>
       <c r="R109" s="5">
         <f>'Mortgage Performance'!R38</f>
-        <v>4.3591729506329164</v>
+        <v>4.3591801927679663</v>
       </c>
       <c r="S109" s="5">
         <f>'Mortgage Performance'!S38</f>
-        <v>9.8656761712108903E-7</v>
+        <v>9.8753862510948229E-7</v>
       </c>
       <c r="T109" s="5">
         <f>'Mortgage Performance'!T38</f>
-        <v>0.25089311621988403</v>
+        <v>0.25089826827778899</v>
       </c>
       <c r="U109" s="5">
         <f>'Mortgage Performance'!U38</f>
-        <v>0.98828777273436696</v>
+        <v>0.98829343452964891</v>
       </c>
       <c r="V109" s="5">
         <f>'Mortgage Performance'!V38</f>
-        <v>0.97299086192756001</v>
+        <v>0.97299473098579592</v>
       </c>
       <c r="W109" s="5">
         <f>'Mortgage Performance'!W38</f>
-        <v>3.1968617779302</v>
+        <v>3.1964882587399099</v>
       </c>
       <c r="X109" s="5">
         <f>'Mortgage Performance'!X38</f>
-        <v>2.0654883273848426</v>
+        <v>2.0653258357402233</v>
       </c>
       <c r="Y109" s="5">
         <f>'Mortgage Performance'!Y38</f>
-        <v>0.17305147130745646</v>
+        <v>0.17302247187219372</v>
       </c>
       <c r="Z109" s="5">
         <f>'Mortgage Performance'!Z38</f>
@@ -8182,11 +8182,11 @@
       </c>
       <c r="AA109" s="5">
         <f>'Mortgage Performance'!AA38</f>
-        <v>0.62101942404989796</v>
+        <v>0.62085021618730596</v>
       </c>
       <c r="AB109" s="5">
         <f>'Mortgage Performance'!AB38</f>
-        <v>2.400411554646702</v>
+        <v>2.4002601670448245</v>
       </c>
       <c r="AC109" s="5">
         <f>'Mortgage Performance'!AC38</f>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="AG109" s="5">
         <f>'Mortgage Performance'!AG38</f>
-        <v>5.1676098078577999</v>
+        <v>5.1675331865108003</v>
       </c>
       <c r="AH109" s="5">
         <f>'Mortgage Performance'!AH38</f>
@@ -8297,23 +8297,23 @@
       </c>
       <c r="E110" s="5">
         <f>'Mortgage Performance'!E41</f>
-        <v>102.101040655283</v>
+        <v>102.100194568162</v>
       </c>
       <c r="F110" s="5">
         <f>'Mortgage Performance'!F41</f>
-        <v>101.35419925208556</v>
+        <v>101.35335488798236</v>
       </c>
       <c r="G110" s="5">
         <f>'Mortgage Performance'!G41</f>
-        <v>6243.4186739284605</v>
+        <v>6243.3605798984199</v>
       </c>
       <c r="H110" s="5">
         <f>'Mortgage Performance'!H41</f>
-        <v>6159.99999999999</v>
+        <v>6159.9939999999997</v>
       </c>
       <c r="I110" s="5">
         <f>'Mortgage Performance'!I41</f>
-        <v>5.7453444984279898</v>
+        <v>5.7454596709022798</v>
       </c>
       <c r="J110" s="5">
         <f>'Mortgage Performance'!J41</f>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="M110" s="5">
         <f>'Mortgage Performance'!M41</f>
-        <v>19.993506493506487</v>
+        <v>19.993506487181648</v>
       </c>
       <c r="N110" s="5">
         <f>'Mortgage Performance'!N41</f>
@@ -8345,51 +8345,51 @@
       </c>
       <c r="Q110" s="5">
         <f>'Mortgage Performance'!Q41</f>
-        <v>5.702749196560041</v>
+        <v>5.702758398465841</v>
       </c>
       <c r="R110" s="5">
         <f>'Mortgage Performance'!R41</f>
-        <v>4.2560195637814697</v>
+        <v>4.2560248424168945</v>
       </c>
       <c r="S110" s="5">
         <f>'Mortgage Performance'!S41</f>
-        <v>-5.3544040998382497E-6</v>
+        <v>-5.3533296544575997E-6</v>
       </c>
       <c r="T110" s="5">
         <f>'Mortgage Performance'!T41</f>
-        <v>0.35114999611728104</v>
+        <v>0.35115193590773097</v>
       </c>
       <c r="U110" s="5">
         <f>'Mortgage Performance'!U41</f>
-        <v>1.0955849910653901</v>
+        <v>1.0955869734708701</v>
       </c>
       <c r="V110" s="5">
         <f>'Mortgage Performance'!V41</f>
-        <v>1.1431911200460902</v>
+        <v>1.14319506292705</v>
       </c>
       <c r="W110" s="5">
         <f>'Mortgage Performance'!W41</f>
-        <v>5.1220700646937898</v>
+        <v>5.1218040237464697</v>
       </c>
       <c r="X110" s="5">
         <f>'Mortgage Performance'!X41</f>
-        <v>3.1011331812586884</v>
+        <v>3.1010293443398789</v>
       </c>
       <c r="Y110" s="5">
         <f>'Mortgage Performance'!Y41</f>
-        <v>0.29058050794622858</v>
+        <v>0.29056224435422501</v>
       </c>
       <c r="Z110" s="5">
         <f>'Mortgage Performance'!Z41</f>
-        <v>-1.9707618045843699E-6</v>
+        <v>-1.9707801423840202E-6</v>
       </c>
       <c r="AA110" s="5">
         <f>'Mortgage Performance'!AA41</f>
-        <v>0.89413231091337986</v>
+        <v>0.89401370055280704</v>
       </c>
       <c r="AB110" s="5">
         <f>'Mortgage Performance'!AB41</f>
-        <v>3.7612357423675409</v>
+        <v>3.7611360740367008</v>
       </c>
       <c r="AC110" s="5">
         <f>'Mortgage Performance'!AC41</f>
@@ -8397,19 +8397,19 @@
       </c>
       <c r="AD110" s="5">
         <f>'Mortgage Performance'!AD41</f>
-        <v>1.09433954772727E-2</v>
+        <v>1.09434061364345E-2</v>
       </c>
       <c r="AE110" s="5">
         <f>'Mortgage Performance'!AE41</f>
-        <v>0.34408824675324701</v>
+        <v>0.34408824664439602</v>
       </c>
       <c r="AF110" s="5">
         <f>'Mortgage Performance'!AF41</f>
-        <v>0.34408824675324701</v>
+        <v>0.34408824664439602</v>
       </c>
       <c r="AG110" s="5">
         <f>'Mortgage Performance'!AG41</f>
-        <v>79.806828527229797</v>
+        <v>79.806566672555803</v>
       </c>
       <c r="AH110" s="5">
         <f>'Mortgage Performance'!AH41</f>
@@ -8500,23 +8500,23 @@
       </c>
       <c r="E111" s="5">
         <f>'Mortgage Performance'!E44</f>
-        <v>101.213966548915</v>
+        <v>101.213542697444</v>
       </c>
       <c r="F111" s="5">
         <f>'Mortgage Performance'!F44</f>
-        <v>100.87923331370857</v>
+        <v>100.87881011518799</v>
       </c>
       <c r="G111" s="5">
         <f>'Mortgage Performance'!G44</f>
-        <v>6580.3523890532097</v>
+        <v>6580.3227662375102</v>
       </c>
       <c r="H111" s="5">
         <f>'Mortgage Performance'!H44</f>
-        <v>6523</v>
+        <v>6522.9979999999996</v>
       </c>
       <c r="I111" s="5">
         <f>'Mortgage Performance'!I44</f>
-        <v>7.1816729908963888</v>
+        <v>7.1812972731250202</v>
       </c>
       <c r="J111" s="5">
         <f>'Mortgage Performance'!J44</f>
@@ -8548,71 +8548,71 @@
       </c>
       <c r="Q111" s="5">
         <f>'Mortgage Performance'!Q44</f>
-        <v>6.5892272550266107</v>
+        <v>6.589229295841716</v>
       </c>
       <c r="R111" s="5">
         <f>'Mortgage Performance'!R44</f>
-        <v>4.351300976343901</v>
+        <v>4.3513012185054025</v>
       </c>
       <c r="S111" s="5">
         <f>'Mortgage Performance'!S44</f>
-        <v>6.0576544097774201E-6</v>
+        <v>6.0613370180175905E-6</v>
       </c>
       <c r="T111" s="5">
         <f>'Mortgage Performance'!T44</f>
-        <v>0.72693275788880996</v>
+        <v>0.72693360669120588</v>
       </c>
       <c r="U111" s="5">
         <f>'Mortgage Performance'!U44</f>
-        <v>1.51098746313949</v>
+        <v>1.5109884093080899</v>
       </c>
       <c r="V111" s="5">
         <f>'Mortgage Performance'!V44</f>
-        <v>1.4451307790975201</v>
+        <v>1.4451313645652397</v>
       </c>
       <c r="W111" s="5">
         <f>'Mortgage Performance'!W44</f>
-        <v>1.8609212330096501</v>
+        <v>1.8609186464577703</v>
       </c>
       <c r="X111" s="5">
         <f>'Mortgage Performance'!X44</f>
-        <v>1.6182438202753942</v>
+        <v>1.6182426035666528</v>
       </c>
       <c r="Y111" s="5">
         <f>'Mortgage Performance'!Y44</f>
-        <v>5.8735142398805271E-2</v>
+        <v>5.8735110424393423E-2</v>
       </c>
       <c r="Z111" s="5">
         <f>'Mortgage Performance'!Z44</f>
-        <v>4.2122401631712299E-3</v>
+        <v>4.2113311569417699E-3</v>
       </c>
       <c r="AA111" s="5">
         <f>'Mortgage Performance'!AA44</f>
-        <v>0.69388871606443714</v>
+        <v>0.69388376892128201</v>
       </c>
       <c r="AB111" s="5">
         <f>'Mortgage Performance'!AB44</f>
-        <v>1.6399939177950049</v>
+        <v>1.6399928074348953</v>
       </c>
       <c r="AC111" s="5">
         <f>'Mortgage Performance'!AC44</f>
-        <v>17.999198442357297</v>
+        <v>17.999198439449401</v>
       </c>
       <c r="AD111" s="5">
         <f>'Mortgage Performance'!AD44</f>
-        <v>17.9984529360826</v>
+        <v>17.998452931897798</v>
       </c>
       <c r="AE111" s="5">
         <f>'Mortgage Performance'!AE44</f>
-        <v>0.63598134337104595</v>
+        <v>0.63598123215822899</v>
       </c>
       <c r="AF111" s="5">
         <f>'Mortgage Performance'!AF44</f>
-        <v>0.71459215472235404</v>
+        <v>0.71459068465686304</v>
       </c>
       <c r="AG111" s="5">
         <f>'Mortgage Performance'!AG44</f>
-        <v>83.988581280998204</v>
+        <v>83.988175963911601</v>
       </c>
       <c r="AH111" s="5">
         <f>'Mortgage Performance'!AH44</f>
@@ -8703,23 +8703,23 @@
       </c>
       <c r="E112" s="5">
         <f>'Mortgage Performance'!E45</f>
-        <v>97.1075091678738</v>
+        <v>97.105756262783402</v>
       </c>
       <c r="F112" s="5">
         <f>'Mortgage Performance'!F45</f>
-        <v>96.737655527489395</v>
+        <v>96.735906588263248</v>
       </c>
       <c r="G112" s="5">
         <f>'Mortgage Performance'!G45</f>
-        <v>3372.2746716882803</v>
+        <v>3372.2175731031202</v>
       </c>
       <c r="H112" s="5">
         <f>'Mortgage Performance'!H45</f>
-        <v>3486</v>
+        <v>3486.0039999999999</v>
       </c>
       <c r="I112" s="5">
         <f>'Mortgage Performance'!I45</f>
-        <v>7.5886250947645202</v>
+        <v>7.5874029088893788</v>
       </c>
       <c r="J112" s="5">
         <f>'Mortgage Performance'!J45</f>
@@ -8751,59 +8751,59 @@
       </c>
       <c r="Q112" s="5">
         <f>'Mortgage Performance'!Q45</f>
-        <v>9.3901492034319105</v>
+        <v>9.3902047834774596</v>
       </c>
       <c r="R112" s="5">
         <f>'Mortgage Performance'!R45</f>
-        <v>4.3445050875693312</v>
+        <v>4.3445068657615922</v>
       </c>
       <c r="S112" s="5">
         <f>'Mortgage Performance'!S45</f>
-        <v>4.8200102719598194E-5</v>
+        <v>4.8191252747650805E-5</v>
       </c>
       <c r="T112" s="5">
         <f>'Mortgage Performance'!T45</f>
-        <v>1.9973049463784505</v>
+        <v>1.9973309067038401</v>
       </c>
       <c r="U112" s="5">
         <f>'Mortgage Performance'!U45</f>
-        <v>3.04829096938141</v>
+        <v>3.0483188197592805</v>
       </c>
       <c r="V112" s="5">
         <f>'Mortgage Performance'!V45</f>
-        <v>3.0143493975329401</v>
+        <v>3.0143747668268301</v>
       </c>
       <c r="W112" s="5">
         <f>'Mortgage Performance'!W45</f>
-        <v>2.1731775804642401</v>
+        <v>2.1731593716949602</v>
       </c>
       <c r="X112" s="5">
         <f>'Mortgage Performance'!X45</f>
-        <v>1.7619214668464083</v>
+        <v>1.7619132951947705</v>
       </c>
       <c r="Y112" s="5">
         <f>'Mortgage Performance'!Y45</f>
-        <v>7.4539261556943515E-2</v>
+        <v>7.4538964508615399E-2</v>
       </c>
       <c r="Z112" s="5">
         <f>'Mortgage Performance'!Z45</f>
-        <v>-6.0868130682029701E-3</v>
+        <v>-6.0890090213270602E-3</v>
       </c>
       <c r="AA112" s="5">
         <f>'Mortgage Performance'!AA45</f>
-        <v>1.3827570815693699</v>
+        <v>1.38274567436388</v>
       </c>
       <c r="AB112" s="5">
         <f>'Mortgage Performance'!AB45</f>
-        <v>1.7961618245355815</v>
+        <v>1.7961538631362128</v>
       </c>
       <c r="AC112" s="5">
         <f>'Mortgage Performance'!AC45</f>
-        <v>9.9990508129879707</v>
+        <v>9.9990507985834594</v>
       </c>
       <c r="AD112" s="5">
         <f>'Mortgage Performance'!AD45</f>
-        <v>9.9983887886136387</v>
+        <v>9.9983887737570587</v>
       </c>
       <c r="AE112" s="5">
         <f>'Mortgage Performance'!AE45</f>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="AG112" s="5">
         <f>'Mortgage Performance'!AG45</f>
-        <v>120.662437716049</v>
+        <v>120.661282327419</v>
       </c>
       <c r="AH112" s="5">
         <f>'Mortgage Performance'!AH45</f>

--- a/lib/report/benchmark_report/web14/exl/202212/jsliu__bank_test_&_city_(HF)(202212)_Loan_Portfolio_Analytics.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202212/jsliu__bank_test_&_city_(HF)(202212)_Loan_Portfolio_Analytics.xlsx
@@ -206,7 +206,7 @@
     <t>Portfolio Name: Loans and lease financing receivables          Cycle: December, 2022           Evaluation Date: December 30, 2022</t>
   </si>
   <si>
-    <t>Printed on: 02/10/2023 2:11:36PM</t>
+    <t>Printed on: 02/14/2023 4:02:39PM</t>
   </si>
   <si>
     <t>Footnotes:_x000D_
@@ -1056,7 +1056,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1115-42A5-91AD-218E9E288318}"/>
+                <c16:uniqueId val="{00000001-598F-41B4-BC52-EAAE4F2E1EC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1070,7 +1070,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1115-42A5-91AD-218E9E288318}"/>
+                <c16:uniqueId val="{00000003-598F-41B4-BC52-EAAE4F2E1EC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1084,7 +1084,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1115-42A5-91AD-218E9E288318}"/>
+                <c16:uniqueId val="{00000005-598F-41B4-BC52-EAAE4F2E1EC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1098,7 +1098,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-1115-42A5-91AD-218E9E288318}"/>
+                <c16:uniqueId val="{00000007-598F-41B4-BC52-EAAE4F2E1EC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1136,7 +1136,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-1115-42A5-91AD-218E9E288318}"/>
+                  <c16:uniqueId val="{00000005-598F-41B4-BC52-EAAE4F2E1EC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1247,65 +1247,65 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1722.7009999999996</c:v>
+                  <c:v>1722.6846449370692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2737.317</c:v>
+                  <c:v>2737.3153550629308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4841.4130000000123</c:v>
+                  <c:v>4841.4116827705684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9986.5859999999957</c:v>
+                  <c:v>9986.5883172294616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2787.2540000000013</c:v>
+                  <c:v>2787.250036395561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3356.723</c:v>
+                  <c:v>3356.7246306163147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>372.96900000000005</c:v>
+                  <c:v>372.96940340181288</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32306.501</c:v>
+                  <c:v>32306.502930843129</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13153.802000000001</c:v>
+                  <c:v>13153.803035138721</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17768.510999999988</c:v>
+                  <c:v>17768.503760350522</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>867.33199999999999</c:v>
+                  <c:v>867.33197214497</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>142.16399999999999</c:v>
+                  <c:v>142.164267504485</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>284.74799999999999</c:v>
+                  <c:v>284.7499636044343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3917.6839999999993</c:v>
+                  <c:v>3917.6850969277602</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2242.31</c:v>
+                  <c:v>2242.3149030722398</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6522.9979999999996</c:v>
+                  <c:v>6522.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>108.96300000000001</c:v>
+                  <c:v>108.96133708656167</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3377.0409999999997</c:v>
+                  <c:v>3377.0386629134391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-1115-42A5-91AD-218E9E288318}"/>
+              <c16:uniqueId val="{00000008-598F-41B4-BC52-EAAE4F2E1EC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1408,7 +1408,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-FFA2-49D8-B566-C93AAC5E84B7}"/>
+                <c16:uniqueId val="{00000001-0108-45E0-A959-CC851F45CF63}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1422,7 +1422,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-FFA2-49D8-B566-C93AAC5E84B7}"/>
+                <c16:uniqueId val="{00000003-0108-45E0-A959-CC851F45CF63}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1436,7 +1436,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-FFA2-49D8-B566-C93AAC5E84B7}"/>
+                <c16:uniqueId val="{00000005-0108-45E0-A959-CC851F45CF63}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1450,7 +1450,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-FFA2-49D8-B566-C93AAC5E84B7}"/>
+                <c16:uniqueId val="{00000007-0108-45E0-A959-CC851F45CF63}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1511,14 +1511,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>106497.01700000012</c:v>
+                  <c:v>106496.99999999936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-FFA2-49D8-B566-C93AAC5E84B7}"/>
+              <c16:uniqueId val="{00000008-0108-45E0-A959-CC851F45CF63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2628,15 +2628,15 @@
       <c r="D10" s="51"/>
       <c r="E10" s="38">
         <f>C10/100-U17+Q17</f>
-        <v>5.5118170836667844</v>
+        <v>5.5118345138097133</v>
       </c>
       <c r="F10" s="39">
         <f>(1-(C10/10000-U17/100)*AB17)*E17</f>
-        <v>100.04028925967093</v>
+        <v>100.0380261478016</v>
       </c>
       <c r="G10" s="40">
         <f>(1-(C10/10000-U17/100)*AB17)*F17</f>
-        <v>99.33444566428291</v>
+        <v>99.332183382687518</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -2958,23 +2958,23 @@
       </c>
       <c r="E17" s="16">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!E101:E112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>99.8911961049848</v>
+        <v>99.888922566457822</v>
       </c>
       <c r="F17" s="16">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!F101:F112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>99.186404450261193</v>
+        <v>99.184131838136125</v>
       </c>
       <c r="G17" s="17">
         <f>SUM(DATATEMP!G101:G112)</f>
-        <v>105630.56200908344</v>
+        <v>105628.12488365981</v>
       </c>
       <c r="H17" s="17">
         <f>SUM(DATATEMP!H101:H112)</f>
-        <v>106497.01700000001</v>
+        <v>106496.99999999999</v>
       </c>
       <c r="I17" s="18">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!I101:I112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>5.651660869524636</v>
+        <v>5.6517044690519826</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -2984,87 +2984,87 @@
       </c>
       <c r="M17" s="17">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!M101:M112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>20.292792107031495</v>
+        <v>20.292792724691914</v>
       </c>
       <c r="N17" s="17">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!N101:N112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>153.74387321328584</v>
+        <v>153.7432036255563</v>
       </c>
       <c r="O17" s="17">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!O101:O112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>719.99999999999977</v>
+        <v>720.00000000000011</v>
       </c>
       <c r="P17" s="17">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!P101:P112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>74.999999999999986</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="21">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!Q101:Q112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>5.555829754205508</v>
+        <v>5.5558528680978272</v>
       </c>
       <c r="R17" s="21">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!R101:R112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>4.1936967539144669</v>
+        <v>4.1936985144140104</v>
       </c>
       <c r="S17" s="21">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!S101:S112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>1.5147989209238027E-2</v>
+        <v>1.5155810987628618E-2</v>
       </c>
       <c r="T17" s="21">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!T101:T112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>0.30297234054307909</v>
+        <v>0.30298018840807434</v>
       </c>
       <c r="U17" s="21">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!U101:U112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>1.0440126705387238</v>
+        <v>1.0440183542881138</v>
       </c>
       <c r="V17" s="21">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!V101:V112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>1.0939490260634006</v>
+        <v>1.0939200814815819</v>
       </c>
       <c r="W17" s="16">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!W101:W112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>4.251135781565532</v>
+        <v>4.2509429174105042</v>
       </c>
       <c r="X17" s="16">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!X101:X112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>2.840660337933111</v>
+        <v>2.8414607673818209</v>
       </c>
       <c r="Y17" s="16">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!Y101:Y112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>0.38675813746199927</v>
+        <v>0.38483226853982277</v>
       </c>
       <c r="Z17" s="22">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!Z101:Z112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>3.2822810736860488E-3</v>
+        <v>3.2887197029104051E-3</v>
       </c>
       <c r="AA17" s="16">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!AA101:AA112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>0.77690900284277709</v>
+        <v>0.77672333230500812</v>
       </c>
       <c r="AB17" s="16">
         <f>IF(SUM(DATATEMP!G101:G112) = 0,"",SUMPRODUCT(DATATEMP!AB101:AB112,DATATEMP!G101:G112)/SUM(DATATEMP!G101:G112))</f>
-        <v>3.3911950516006635</v>
+        <v>3.3910714828123014</v>
       </c>
       <c r="AC17" s="16">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!AC101:AC112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>10.287268852724935</v>
+        <v>10.292065678032115</v>
       </c>
       <c r="AD17" s="16">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!AD101:AD112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>11.845226869212738</v>
+        <v>11.844617154600961</v>
       </c>
       <c r="AE17" s="16">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!AE101:AE112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>0.26209102620768021</v>
+        <v>0.26209459611606162</v>
       </c>
       <c r="AF17" s="16">
         <f>IF(SUM(DATATEMP!H101:H112) = 0,"",SUMPRODUCT(DATATEMP!AF101:AF112,DATATEMP!H101:H112)/SUM(DATATEMP!H101:H112))</f>
-        <v>0.33096495382331931</v>
+        <v>0.33095790783913215</v>
       </c>
       <c r="AG17" s="17">
         <f>SUM(DATATEMP!AG101:AG112)</f>
-        <v>915.8250261189462</v>
+        <v>915.76541167019263</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3147,19 +3147,19 @@
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="23">
-        <v>99.212734979840505</v>
+        <v>99.212071404996806</v>
       </c>
       <c r="F20" s="23">
-        <v>98.768878254547104</v>
+        <v>98.768215777758741</v>
       </c>
       <c r="G20" s="26">
-        <v>2087.96025865817</v>
+        <v>2087.9600815418198</v>
       </c>
       <c r="H20" s="26">
-        <v>2113.9859999999999</v>
+        <v>2114</v>
       </c>
       <c r="I20" s="27">
-        <v>5.2454573445614097</v>
+        <v>5.2443018518761297</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
@@ -3177,40 +3177,40 @@
         <v>75</v>
       </c>
       <c r="Q20" s="30">
-        <v>6.2474228625243491</v>
+        <v>6.2474205999895931</v>
       </c>
       <c r="R20" s="30">
-        <v>4.4752752283464492</v>
+        <v>4.4752719868617419</v>
       </c>
       <c r="S20" s="30">
-        <v>6.9449225704480598E-6</v>
+        <v>6.9463502681465999E-6</v>
       </c>
       <c r="T20" s="30">
-        <v>0.50383124769135901</v>
+        <v>0.50383175491501309</v>
       </c>
       <c r="U20" s="30">
-        <v>1.26830944156397</v>
+        <v>1.26830991186257</v>
       </c>
       <c r="V20" s="30">
-        <v>1.3117859874317701</v>
+        <v>1.3117858066965999</v>
       </c>
       <c r="W20" s="23">
-        <v>2.8365596159579001</v>
+        <v>2.8366227418433998</v>
       </c>
       <c r="X20" s="23">
-        <v>1.326686230481823</v>
+        <v>1.3267147205608412</v>
       </c>
       <c r="Y20" s="23">
-        <v>5.9710797456587389E-2</v>
+        <v>5.9714635642546178E-2</v>
       </c>
       <c r="Z20" s="31">
         <v>0</v>
       </c>
       <c r="AA20" s="23">
-        <v>0.70298976286882198</v>
+        <v>0.70302047147079605</v>
       </c>
       <c r="AB20" s="23">
-        <v>2.2221312471468977</v>
+        <v>2.2221675231639648</v>
       </c>
       <c r="AC20" s="23">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>0.48339000000000004</v>
       </c>
       <c r="AG20" s="26">
-        <v>22.8476362362094</v>
+        <v>22.847731023452603</v>
       </c>
     </row>
     <row r="21" spans="1:33" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3236,19 +3236,19 @@
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="23">
-        <v>99.212738848672302</v>
+        <v>99.212071404996806</v>
       </c>
       <c r="F21" s="23">
-        <v>98.768880797588849</v>
+        <v>98.768215777758741</v>
       </c>
       <c r="G21" s="26">
-        <v>2317.1495495532899</v>
+        <v>2317.1023421462201</v>
       </c>
       <c r="H21" s="26">
-        <v>2346.0320000000002</v>
+        <v>2346</v>
       </c>
       <c r="I21" s="27">
-        <v>5.2454566476501601</v>
+        <v>5.2443018518761404</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
@@ -3266,40 +3266,40 @@
         <v>75</v>
       </c>
       <c r="Q21" s="30">
-        <v>6.2474194862678676</v>
+        <v>6.2474205999895922</v>
       </c>
       <c r="R21" s="30">
-        <v>4.475272408022712</v>
+        <v>4.475271986861741</v>
       </c>
       <c r="S21" s="30">
-        <v>6.9440002787727696E-6</v>
+        <v>6.9463502681465398E-6</v>
       </c>
       <c r="T21" s="30">
-        <v>0.50383118161462692</v>
+        <v>0.50383175491501309</v>
       </c>
       <c r="U21" s="30">
-        <v>1.26830895263025</v>
+        <v>1.26830991186257</v>
       </c>
       <c r="V21" s="30">
-        <v>1.3117855745159401</v>
+        <v>1.3117858066965999</v>
       </c>
       <c r="W21" s="23">
-        <v>2.83656482304497</v>
+        <v>2.83662274184339</v>
       </c>
       <c r="X21" s="23">
-        <v>1.3266757920168988</v>
+        <v>1.3267147205580314</v>
       </c>
       <c r="Y21" s="23">
-        <v>5.9709963876272851E-2</v>
+        <v>5.9714635639094509E-2</v>
       </c>
       <c r="Z21" s="31">
         <v>0</v>
       </c>
       <c r="AA21" s="23">
-        <v>0.70299313852782097</v>
+        <v>0.70302047147079505</v>
       </c>
       <c r="AB21" s="23">
-        <v>2.222139117260435</v>
+        <v>2.2221675231642473</v>
       </c>
       <c r="AC21" s="23">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0.48339000000000004</v>
       </c>
       <c r="AG21" s="26">
-        <v>25.3556295265683</v>
+        <v>25.355145213348003</v>
       </c>
     </row>
     <row r="22" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3397,19 +3397,19 @@
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="23">
-        <v>99.5226754005988</v>
+        <v>99.519388345804899</v>
       </c>
       <c r="F24" s="23">
-        <v>98.59441236225959</v>
+        <v>98.5911381616977</v>
       </c>
       <c r="G24" s="26">
-        <v>4598.4522660728999</v>
+        <v>4598.2906838615709</v>
       </c>
       <c r="H24" s="26">
-        <v>4664.009</v>
+        <v>4663.99999999999</v>
       </c>
       <c r="I24" s="27">
-        <v>5.0956662154811498</v>
+        <v>5.0943693048893604</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
@@ -3427,40 +3427,40 @@
         <v>75</v>
       </c>
       <c r="Q24" s="30">
-        <v>5.4023186077424832</v>
+        <v>5.402331431479805</v>
       </c>
       <c r="R24" s="30">
-        <v>4.1475870670627524</v>
+        <v>4.147589740521533</v>
       </c>
       <c r="S24" s="30">
-        <v>4.9143715749702596E-6</v>
+        <v>4.9118613500626001E-6</v>
       </c>
       <c r="T24" s="30">
-        <v>0.25714654838108303</v>
+        <v>0.25715128105941504</v>
       </c>
       <c r="U24" s="30">
-        <v>0.99758007792707204</v>
+        <v>0.99758549803750707</v>
       </c>
       <c r="V24" s="30">
-        <v>1.0526655140469199</v>
+        <v>1.05266712765651</v>
       </c>
       <c r="W24" s="23">
-        <v>6.0583001199961899</v>
+        <v>6.0582203141602102</v>
       </c>
       <c r="X24" s="23">
-        <v>3.4764546208484171</v>
+        <v>3.4764365621771942</v>
       </c>
       <c r="Y24" s="23">
-        <v>0.29559646010224178</v>
+        <v>0.29559483893972627</v>
       </c>
       <c r="Z24" s="31">
         <v>0</v>
       </c>
       <c r="AA24" s="23">
-        <v>0.91405837057620287</v>
+        <v>0.91398811807071101</v>
       </c>
       <c r="AB24" s="23">
-        <v>4.5817283401797289</v>
+        <v>4.5817288826698128</v>
       </c>
       <c r="AC24" s="23">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG24" s="26">
-        <v>53.830416486976098</v>
+        <v>53.8295671913042</v>
       </c>
     </row>
     <row r="25" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3558,19 +3558,19 @@
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="23">
-        <v>105.8215182703</v>
+        <v>105.817452264</v>
       </c>
       <c r="F27" s="23">
-        <v>105.37837510506792</v>
+        <v>105.37431546004056</v>
       </c>
       <c r="G27" s="26">
-        <v>2234.0215522274398</v>
+        <v>2233.9354877528599</v>
       </c>
       <c r="H27" s="26">
         <v>2120</v>
       </c>
       <c r="I27" s="27">
-        <v>7.52</v>
+        <v>7.5150089605000003</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
@@ -3588,55 +3588,55 @@
         <v>75</v>
       </c>
       <c r="Q27" s="30">
-        <v>6.2034924499999997</v>
+        <v>6.2034345100000001</v>
       </c>
       <c r="R27" s="30">
-        <v>4.1873702999999995</v>
+        <v>4.1873676400000006</v>
       </c>
       <c r="S27" s="30">
         <v>6.3799999999999999E-6</v>
       </c>
       <c r="T27" s="30">
-        <v>0.63736212999999997</v>
+        <v>0.63733549999999994</v>
       </c>
       <c r="U27" s="30">
-        <v>1.37875364</v>
+        <v>1.37872499</v>
       </c>
       <c r="V27" s="30">
-        <v>1.3096840300000001</v>
+        <v>1.3096451099999999</v>
       </c>
       <c r="W27" s="23">
-        <v>2.5023864995</v>
+        <v>2.5023486348000001</v>
       </c>
       <c r="X27" s="23">
-        <v>0.85873410871172495</v>
+        <v>0.8587431879914289</v>
       </c>
       <c r="Y27" s="23">
-        <v>1.2439555328228748E-2</v>
+        <v>1.2439742845200297E-2</v>
       </c>
       <c r="Z27" s="31">
-        <v>4.0299034800000001E-2</v>
+        <v>4.0296077700000002E-2</v>
       </c>
       <c r="AA27" s="23">
-        <v>1.0065564402</v>
+        <v>1.0065241979999999</v>
       </c>
       <c r="AB27" s="23">
-        <v>2.1929389066235769</v>
+        <v>2.1929760418677398</v>
       </c>
       <c r="AC27" s="23">
-        <v>24.999823269999997</v>
+        <v>24.999823229999997</v>
       </c>
       <c r="AD27" s="23">
         <v>24.999683650000001</v>
       </c>
       <c r="AE27" s="23">
-        <v>0.77122922000000005</v>
+        <v>0.77122710999999999</v>
       </c>
       <c r="AF27" s="23">
-        <v>0.63502430999999993</v>
+        <v>0.63499089000000009</v>
       </c>
       <c r="AG27" s="26">
-        <v>30.8687700741859</v>
+        <v>30.866855823202098</v>
       </c>
     </row>
     <row r="28" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3719,25 +3719,25 @@
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="23">
-        <v>99.619157479511401</v>
+        <v>99.616164868099801</v>
       </c>
       <c r="F30" s="23">
-        <v>98.874664974390896</v>
+        <v>98.871671651399325</v>
       </c>
       <c r="G30" s="26">
-        <v>67203.1342672873</v>
+        <v>67201.097788023093</v>
       </c>
       <c r="H30" s="26">
-        <v>67968.001999999993</v>
+        <v>67968</v>
       </c>
       <c r="I30" s="27">
-        <v>5.4854945206422299</v>
+        <v>5.4859875946898597</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="29"/>
       <c r="M30" s="26">
-        <v>20.459355653856047</v>
+        <v>20.459356561933774</v>
       </c>
       <c r="N30" s="26">
         <v>189.5359342915811</v>
@@ -3749,55 +3749,55 @@
         <v>75</v>
       </c>
       <c r="Q30" s="30">
-        <v>5.2025235607267222</v>
+        <v>5.2025496361643411</v>
       </c>
       <c r="R30" s="30">
-        <v>4.1521007288984277</v>
+        <v>4.1521023336663738</v>
       </c>
       <c r="S30" s="30">
-        <v>2.3804432792151199E-2</v>
+        <v>2.3816899613857998E-2</v>
       </c>
       <c r="T30" s="30">
-        <v>0.15360748221267198</v>
+        <v>0.15361562275216101</v>
       </c>
       <c r="U30" s="30">
-        <v>0.87301091682347109</v>
+        <v>0.873014780131948</v>
       </c>
       <c r="V30" s="30">
-        <v>0.94442241751585099</v>
+        <v>0.9443736310451889</v>
       </c>
       <c r="W30" s="23">
-        <v>4.3551292135463502</v>
+        <v>4.3548227195997704</v>
       </c>
       <c r="X30" s="23">
-        <v>3.0811604291601089</v>
+        <v>3.082417139051751</v>
       </c>
       <c r="Y30" s="23">
-        <v>0.50467105232080978</v>
+        <v>0.50164481170454012</v>
       </c>
       <c r="Z30" s="31">
-        <v>3.8024886358439401E-3</v>
+        <v>3.8125121790229502E-3</v>
       </c>
       <c r="AA30" s="23">
-        <v>0.72057279142717301</v>
+        <v>0.72027847107890397</v>
       </c>
       <c r="AB30" s="23">
-        <v>3.5344377867242085</v>
+        <v>3.5342399350896874</v>
       </c>
       <c r="AC30" s="23">
-        <v>12.7486430815656</v>
+        <v>12.756157678913699</v>
       </c>
       <c r="AD30" s="23">
-        <v>15.1888858172317</v>
+        <v>15.187928751441099</v>
       </c>
       <c r="AE30" s="23">
-        <v>0.10401471413918899</v>
+        <v>0.104020539981643</v>
       </c>
       <c r="AF30" s="23">
-        <v>0.21057113874177899</v>
+        <v>0.21056123071069299</v>
       </c>
       <c r="AG30" s="26">
-        <v>379.68902092132697</v>
+        <v>379.63199562389298</v>
       </c>
     </row>
     <row r="31" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3808,19 +3808,19 @@
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="23">
-        <v>98.399833630898215</v>
+        <v>98.400258136776003</v>
       </c>
       <c r="F31" s="23">
-        <v>98.094685196106425</v>
+        <v>98.095109145730774</v>
       </c>
       <c r="G31" s="26">
-        <v>933.863364960637</v>
+        <v>933.86543906735892</v>
       </c>
       <c r="H31" s="26">
-        <v>952.00199999999995</v>
+        <v>952.00000000000193</v>
       </c>
       <c r="I31" s="27">
-        <v>4.9353707240110802</v>
+        <v>4.9333783253018302</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
@@ -3838,55 +3838,55 @@
         <v>75</v>
       </c>
       <c r="Q31" s="30">
-        <v>6.3367118070039403</v>
+        <v>6.3366871532537035</v>
       </c>
       <c r="R31" s="30">
-        <v>4.3687414082906155</v>
+        <v>4.3687399911806866</v>
       </c>
       <c r="S31" s="30">
-        <v>6.1204679646547695E-6</v>
+        <v>6.1219004540595303E-6</v>
       </c>
       <c r="T31" s="30">
-        <v>0.604781930630931</v>
+        <v>0.60477058314112297</v>
       </c>
       <c r="U31" s="30">
-        <v>1.3631823476144298</v>
+        <v>1.36317045703144</v>
       </c>
       <c r="V31" s="30">
-        <v>1.28725564082439</v>
+        <v>1.2872443210447699</v>
       </c>
       <c r="W31" s="23">
-        <v>1.6779457853616899</v>
+        <v>1.6779531573206301</v>
       </c>
       <c r="X31" s="23">
-        <v>0.53971916194313363</v>
+        <v>0.53973025381939643</v>
       </c>
       <c r="Y31" s="23">
-        <v>1.8502126358127716E-2</v>
+        <v>1.8502716429935586E-2</v>
       </c>
       <c r="Z31" s="31">
-        <v>-6.4517178155618091E-3</v>
+        <v>-6.44831771502652E-3</v>
       </c>
       <c r="AA31" s="23">
-        <v>0.56651703915181495</v>
+        <v>0.56652014954945684</v>
       </c>
       <c r="AB31" s="23">
-        <v>1.49551594959012</v>
+        <v>1.4955239353276097</v>
       </c>
       <c r="AC31" s="23">
-        <v>24.9984302475041</v>
+        <v>24.998430222486199</v>
       </c>
       <c r="AD31" s="23">
-        <v>24.997919400541495</v>
+        <v>24.997919393146901</v>
       </c>
       <c r="AE31" s="23">
-        <v>0.69966870098936806</v>
+        <v>0.699666213330427</v>
       </c>
       <c r="AF31" s="23">
-        <v>0.56146065878790197</v>
+        <v>0.56145287830436996</v>
       </c>
       <c r="AG31" s="26">
-        <v>8.8115483428346995</v>
+        <v>8.8114337810901002</v>
       </c>
     </row>
     <row r="32" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3969,19 +3969,19 @@
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="23">
-        <v>99.582103455405402</v>
+        <v>99.578992879836207</v>
       </c>
       <c r="F34" s="23">
-        <v>98.67335445215673</v>
+        <v>98.670255138894973</v>
       </c>
       <c r="G34" s="26">
-        <v>8614.17002940366</v>
+        <v>8613.9132736255397</v>
       </c>
       <c r="H34" s="26">
-        <v>8729.9860000000008</v>
+        <v>8730.0000000000091</v>
       </c>
       <c r="I34" s="27">
-        <v>5.0956739060062599</v>
+        <v>5.0943693048893604</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
@@ -3999,40 +3999,40 @@
         <v>75</v>
       </c>
       <c r="Q34" s="30">
-        <v>5.3963140937163825</v>
+        <v>5.3963245946717731</v>
       </c>
       <c r="R34" s="30">
-        <v>4.1426295748090247</v>
+        <v>4.142630723775051</v>
       </c>
       <c r="S34" s="30">
-        <v>1.25756168998307E-5</v>
+        <v>1.2573588166587301E-5</v>
       </c>
       <c r="T34" s="30">
-        <v>0.25683635898505303</v>
+        <v>0.256840756831273</v>
       </c>
       <c r="U34" s="30">
-        <v>0.99683558430540498</v>
+        <v>0.9968405404772821</v>
       </c>
       <c r="V34" s="30">
-        <v>1.05371923050123</v>
+        <v>1.05372086324134</v>
       </c>
       <c r="W34" s="23">
-        <v>5.9447526960228503</v>
+        <v>5.9446741166168904</v>
       </c>
       <c r="X34" s="23">
-        <v>3.3782365009505448</v>
+        <v>3.3782100983205994</v>
       </c>
       <c r="Y34" s="23">
-        <v>0.29081779367402461</v>
+        <v>0.29081517083314035</v>
       </c>
       <c r="Z34" s="31">
         <v>0</v>
       </c>
       <c r="AA34" s="23">
-        <v>0.89472659758723105</v>
+        <v>0.89466029046083895</v>
       </c>
       <c r="AB34" s="23">
-        <v>4.482614428805034</v>
+        <v>4.4826161599567813</v>
       </c>
       <c r="AC34" s="23">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG34" s="26">
-        <v>98.640393685929695</v>
+        <v>98.639329401815189</v>
       </c>
     </row>
     <row r="35" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4058,19 +4058,19 @@
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="23">
-        <v>99.582065858998106</v>
+        <v>99.578992879843597</v>
       </c>
       <c r="F35" s="23">
-        <v>98.673306702962932</v>
+        <v>98.670255138895399</v>
       </c>
       <c r="G35" s="26">
-        <v>537.77050826421498</v>
+        <v>537.75289050697893</v>
       </c>
       <c r="H35" s="26">
-        <v>545.00099999999998</v>
+        <v>544.99999999999898</v>
       </c>
       <c r="I35" s="27">
-        <v>5.0956567235656403</v>
+        <v>5.0943693048893604</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
@@ -4088,40 +4088,40 @@
         <v>75</v>
       </c>
       <c r="Q35" s="30">
-        <v>5.3963080952065106</v>
+        <v>5.3963245946717731</v>
       </c>
       <c r="R35" s="30">
-        <v>4.1426236521883553</v>
+        <v>4.142630723775051</v>
       </c>
       <c r="S35" s="30">
-        <v>1.2575327156494599E-5</v>
+        <v>1.2573588166587399E-5</v>
       </c>
       <c r="T35" s="30">
-        <v>0.25683640235123095</v>
+        <v>0.256840756831273</v>
       </c>
       <c r="U35" s="30">
-        <v>0.99683546533976797</v>
+        <v>0.9968405404772821</v>
       </c>
       <c r="V35" s="30">
-        <v>1.0537198429440799</v>
+        <v>1.05372086324134</v>
       </c>
       <c r="W35" s="23">
-        <v>5.9448229618482902</v>
+        <v>5.9446741166168904</v>
       </c>
       <c r="X35" s="23">
-        <v>3.3782168164369812</v>
+        <v>3.37821009832115</v>
       </c>
       <c r="Y35" s="23">
-        <v>0.29081635481464457</v>
+        <v>0.29081517083808739</v>
       </c>
       <c r="Z35" s="31">
         <v>0</v>
       </c>
       <c r="AA35" s="23">
-        <v>0.89473800972485495</v>
+        <v>0.89466029046100903</v>
       </c>
       <c r="AB35" s="23">
-        <v>4.482667689529829</v>
+        <v>4.4826161599575922</v>
       </c>
       <c r="AC35" s="23">
         <v>0</v>
@@ -4136,7 +4136,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG35" s="26">
-        <v>6.1580526945178997</v>
+        <v>6.1578962799527002</v>
       </c>
     </row>
     <row r="36" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4219,19 +4219,19 @@
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="23">
-        <v>102.62005789186701</v>
+        <v>102.622871083501</v>
       </c>
       <c r="F38" s="23">
-        <v>102.15255667492437</v>
+        <v>102.15536135707683</v>
       </c>
       <c r="G38" s="26">
-        <v>908.13929341677795</v>
+        <v>908.161162464413</v>
       </c>
       <c r="H38" s="26">
-        <v>889.00300000000004</v>
+        <v>889</v>
       </c>
       <c r="I38" s="27">
-        <v>5.9587775406832204</v>
+        <v>5.9597848507291804</v>
       </c>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
@@ -4249,40 +4249,40 @@
         <v>75</v>
       </c>
       <c r="Q38" s="30">
-        <v>5.5983728831140294</v>
+        <v>5.5983548261547842</v>
       </c>
       <c r="R38" s="30">
-        <v>4.3591801927679663</v>
+        <v>4.3591729506329164</v>
       </c>
       <c r="S38" s="30">
-        <v>9.8753862510948229E-7</v>
+        <v>9.8656761712108903E-7</v>
       </c>
       <c r="T38" s="30">
-        <v>0.25089826827778899</v>
+        <v>0.25089311621988403</v>
       </c>
       <c r="U38" s="30">
-        <v>0.98829343452964891</v>
+        <v>0.98828777273436696</v>
       </c>
       <c r="V38" s="30">
-        <v>0.97299473098579592</v>
+        <v>0.97299086192756001</v>
       </c>
       <c r="W38" s="23">
-        <v>3.1964882587399099</v>
+        <v>3.1968617779302</v>
       </c>
       <c r="X38" s="23">
-        <v>2.0653258357402233</v>
+        <v>2.0654883273848426</v>
       </c>
       <c r="Y38" s="23">
-        <v>0.17302247187219372</v>
+        <v>0.17305147130745646</v>
       </c>
       <c r="Z38" s="31">
         <v>0</v>
       </c>
       <c r="AA38" s="23">
-        <v>0.62085021618730596</v>
+        <v>0.62101942404989796</v>
       </c>
       <c r="AB38" s="23">
-        <v>2.4002601670448245</v>
+        <v>2.400411554646702</v>
       </c>
       <c r="AC38" s="23">
         <v>0</v>
@@ -4297,7 +4297,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG38" s="26">
-        <v>5.1675331865108003</v>
+        <v>5.1676098078577999</v>
       </c>
     </row>
     <row r="39" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4380,25 +4380,25 @@
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="23">
-        <v>102.100194568162</v>
+        <v>102.101040655283</v>
       </c>
       <c r="F41" s="23">
-        <v>101.35335488798236</v>
+        <v>101.35419925208556</v>
       </c>
       <c r="G41" s="26">
-        <v>6243.3605798984199</v>
+        <v>6243.4186739284605</v>
       </c>
       <c r="H41" s="26">
-        <v>6159.9939999999997</v>
+        <v>6159.99999999999</v>
       </c>
       <c r="I41" s="27">
-        <v>5.7454596709022798</v>
+        <v>5.7453444984279898</v>
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
       <c r="L41" s="29"/>
       <c r="M41" s="26">
-        <v>19.993506487181648</v>
+        <v>19.993506493506487</v>
       </c>
       <c r="N41" s="26">
         <v>67.876796714579058</v>
@@ -4410,55 +4410,55 @@
         <v>75</v>
       </c>
       <c r="Q41" s="30">
-        <v>5.702758398465841</v>
+        <v>5.702749196560041</v>
       </c>
       <c r="R41" s="30">
-        <v>4.2560248424168945</v>
+        <v>4.2560195637814697</v>
       </c>
       <c r="S41" s="30">
-        <v>-5.3533296544575997E-6</v>
+        <v>-5.3544040998382497E-6</v>
       </c>
       <c r="T41" s="30">
-        <v>0.35115193590773097</v>
+        <v>0.35114999611728104</v>
       </c>
       <c r="U41" s="30">
-        <v>1.0955869734708701</v>
+        <v>1.0955849910653901</v>
       </c>
       <c r="V41" s="30">
-        <v>1.14319506292705</v>
+        <v>1.1431911200460902</v>
       </c>
       <c r="W41" s="23">
-        <v>5.1218040237464697</v>
+        <v>5.1220700646937898</v>
       </c>
       <c r="X41" s="23">
-        <v>3.1010293443398789</v>
+        <v>3.1011331812586884</v>
       </c>
       <c r="Y41" s="23">
-        <v>0.29056224435422501</v>
+        <v>0.29058050794622858</v>
       </c>
       <c r="Z41" s="31">
-        <v>-1.9707801423840202E-6</v>
+        <v>-1.9707618045843699E-6</v>
       </c>
       <c r="AA41" s="23">
-        <v>0.89401370055280704</v>
+        <v>0.89413231091337986</v>
       </c>
       <c r="AB41" s="23">
-        <v>3.7611360740367008</v>
+        <v>3.7612357423675409</v>
       </c>
       <c r="AC41" s="23">
         <v>0</v>
       </c>
       <c r="AD41" s="23">
-        <v>1.09434061364345E-2</v>
+        <v>1.09433954772727E-2</v>
       </c>
       <c r="AE41" s="23">
-        <v>0.34408824664439602</v>
+        <v>0.34408824675324701</v>
       </c>
       <c r="AF41" s="23">
-        <v>0.34408824664439602</v>
+        <v>0.34408824675324701</v>
       </c>
       <c r="AG41" s="26">
-        <v>79.806566672555803</v>
+        <v>79.806828527229797</v>
       </c>
     </row>
     <row r="42" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4541,19 +4541,19 @@
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="23">
-        <v>101.213542697444</v>
+        <v>101.213966548915</v>
       </c>
       <c r="F44" s="23">
-        <v>100.87881011518799</v>
+        <v>100.87923331370857</v>
       </c>
       <c r="G44" s="26">
-        <v>6580.3227662375102</v>
+        <v>6580.3523890532097</v>
       </c>
       <c r="H44" s="26">
-        <v>6522.9979999999996</v>
+        <v>6523</v>
       </c>
       <c r="I44" s="27">
-        <v>7.1812972731250202</v>
+        <v>7.1816729908963888</v>
       </c>
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
@@ -4571,55 +4571,55 @@
         <v>75</v>
       </c>
       <c r="Q44" s="30">
-        <v>6.589229295841716</v>
+        <v>6.5892272550266107</v>
       </c>
       <c r="R44" s="30">
-        <v>4.3513012185054025</v>
+        <v>4.351300976343901</v>
       </c>
       <c r="S44" s="30">
-        <v>6.0613370180175905E-6</v>
+        <v>6.0576544097774201E-6</v>
       </c>
       <c r="T44" s="30">
-        <v>0.72693360669120588</v>
+        <v>0.72693275788880996</v>
       </c>
       <c r="U44" s="30">
-        <v>1.5109884093080899</v>
+        <v>1.51098746313949</v>
       </c>
       <c r="V44" s="30">
-        <v>1.4451313645652397</v>
+        <v>1.4451307790975201</v>
       </c>
       <c r="W44" s="23">
-        <v>1.8609186464577703</v>
+        <v>1.8609212330096501</v>
       </c>
       <c r="X44" s="23">
-        <v>1.6182426035666528</v>
+        <v>1.6182438202753942</v>
       </c>
       <c r="Y44" s="23">
-        <v>5.8735110424393423E-2</v>
+        <v>5.8735142398805271E-2</v>
       </c>
       <c r="Z44" s="31">
-        <v>4.2113311569417699E-3</v>
+        <v>4.2122401631712299E-3</v>
       </c>
       <c r="AA44" s="23">
-        <v>0.69388376892128201</v>
+        <v>0.69388871606443714</v>
       </c>
       <c r="AB44" s="23">
-        <v>1.6399928074348953</v>
+        <v>1.6399939177950049</v>
       </c>
       <c r="AC44" s="23">
-        <v>17.999198439449401</v>
+        <v>17.999198442357297</v>
       </c>
       <c r="AD44" s="23">
-        <v>17.998452931897798</v>
+        <v>17.9984529360826</v>
       </c>
       <c r="AE44" s="23">
-        <v>0.63598123215822899</v>
+        <v>0.63598134337104595</v>
       </c>
       <c r="AF44" s="23">
-        <v>0.71459068465686304</v>
+        <v>0.71459215472235404</v>
       </c>
       <c r="AG44" s="26">
-        <v>83.988175963911601</v>
+        <v>83.988581280998204</v>
       </c>
     </row>
     <row r="45" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4630,19 +4630,19 @@
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="23">
-        <v>97.105756262783402</v>
+        <v>97.1075091678738</v>
       </c>
       <c r="F45" s="23">
-        <v>96.735906588263248</v>
+        <v>96.737655527489395</v>
       </c>
       <c r="G45" s="26">
-        <v>3372.2175731031202</v>
+        <v>3372.2746716882803</v>
       </c>
       <c r="H45" s="26">
-        <v>3486.0039999999999</v>
+        <v>3486</v>
       </c>
       <c r="I45" s="27">
-        <v>7.5874029088893788</v>
+        <v>7.5886250947645202</v>
       </c>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
@@ -4660,46 +4660,46 @@
         <v>75</v>
       </c>
       <c r="Q45" s="30">
-        <v>9.3902047834774596</v>
+        <v>9.3901492034319105</v>
       </c>
       <c r="R45" s="30">
-        <v>4.3445068657615922</v>
+        <v>4.3445050875693312</v>
       </c>
       <c r="S45" s="30">
-        <v>4.8191252747650805E-5</v>
+        <v>4.8200102719598194E-5</v>
       </c>
       <c r="T45" s="30">
-        <v>1.9973309067038401</v>
+        <v>1.9973049463784505</v>
       </c>
       <c r="U45" s="30">
-        <v>3.0483188197592805</v>
+        <v>3.04829096938141</v>
       </c>
       <c r="V45" s="30">
-        <v>3.0143747668268301</v>
+        <v>3.0143493975329401</v>
       </c>
       <c r="W45" s="23">
-        <v>2.1731593716949602</v>
+        <v>2.1731775804642401</v>
       </c>
       <c r="X45" s="23">
-        <v>1.7619132951947705</v>
+        <v>1.7619214668464083</v>
       </c>
       <c r="Y45" s="23">
-        <v>7.4538964508615399E-2</v>
+        <v>7.4539261556943515E-2</v>
       </c>
       <c r="Z45" s="31">
-        <v>-6.0890090213270602E-3</v>
+        <v>-6.0868130682029701E-3</v>
       </c>
       <c r="AA45" s="23">
-        <v>1.38274567436388</v>
+        <v>1.3827570815693699</v>
       </c>
       <c r="AB45" s="23">
-        <v>1.7961538631362128</v>
+        <v>1.7961618245355815</v>
       </c>
       <c r="AC45" s="23">
-        <v>9.9990507985834594</v>
+        <v>9.9990508129879707</v>
       </c>
       <c r="AD45" s="23">
-        <v>9.9983887737570587</v>
+        <v>9.9983887886136387</v>
       </c>
       <c r="AE45" s="23">
         <v>1.8504750000000001</v>
@@ -4708,7 +4708,7 @@
         <v>1.8504750000000001</v>
       </c>
       <c r="AG45" s="26">
-        <v>120.661282327419</v>
+        <v>120.662437716049</v>
       </c>
     </row>
     <row r="46" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6144,14 +6144,14 @@
         <v>78</v>
       </c>
       <c r="B1" s="5">
-        <v>1722.7009999999996</v>
+        <v>1722.6846449370692</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5">
-        <v>106497.01700000012</v>
+        <v>106496.99999999936</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -6167,7 +6167,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="5">
-        <v>2737.317</v>
+        <v>2737.3153550629308</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
@@ -6184,7 +6184,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="5">
-        <v>4841.4130000000123</v>
+        <v>4841.4116827705684</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
@@ -6201,7 +6201,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="5">
-        <v>9986.5859999999957</v>
+        <v>9986.5883172294616</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
@@ -6218,7 +6218,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="5">
-        <v>2787.2540000000013</v>
+        <v>2787.250036395561</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -6235,7 +6235,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="5">
-        <v>3356.723</v>
+        <v>3356.7246306163147</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6252,7 +6252,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="5">
-        <v>372.96900000000005</v>
+        <v>372.96940340181288</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -6269,7 +6269,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="5">
-        <v>32306.501</v>
+        <v>32306.502930843129</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6286,7 +6286,7 @@
         <v>86</v>
       </c>
       <c r="B9" s="5">
-        <v>13153.802000000001</v>
+        <v>13153.803035138721</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6303,7 +6303,7 @@
         <v>87</v>
       </c>
       <c r="B10" s="5">
-        <v>17768.510999999988</v>
+        <v>17768.503760350522</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6320,7 +6320,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="5">
-        <v>867.33199999999999</v>
+        <v>867.33197214497</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6337,7 +6337,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="5">
-        <v>142.16399999999999</v>
+        <v>142.164267504485</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6354,7 +6354,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="5">
-        <v>284.74799999999999</v>
+        <v>284.7499636044343</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6371,7 +6371,7 @@
         <v>91</v>
       </c>
       <c r="B14" s="5">
-        <v>3917.6839999999993</v>
+        <v>3917.6850969277602</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -6388,7 +6388,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="5">
-        <v>2242.31</v>
+        <v>2242.3149030722398</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -6405,7 +6405,7 @@
         <v>93</v>
       </c>
       <c r="B16" s="5">
-        <v>6522.9979999999996</v>
+        <v>6522.9999999999991</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6422,7 +6422,7 @@
         <v>94</v>
       </c>
       <c r="B17" s="5">
-        <v>108.96300000000001</v>
+        <v>108.96133708656167</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -6439,7 +6439,7 @@
         <v>95</v>
       </c>
       <c r="B18" s="5">
-        <v>3377.0409999999997</v>
+        <v>3377.0386629134391</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6470,23 +6470,23 @@
       </c>
       <c r="E101" s="5">
         <f>'Mortgage Performance'!E20</f>
-        <v>99.212734979840505</v>
+        <v>99.212071404996806</v>
       </c>
       <c r="F101" s="5">
         <f>'Mortgage Performance'!F20</f>
-        <v>98.768878254547104</v>
+        <v>98.768215777758741</v>
       </c>
       <c r="G101" s="5">
         <f>'Mortgage Performance'!G20</f>
-        <v>2087.96025865817</v>
+        <v>2087.9600815418198</v>
       </c>
       <c r="H101" s="5">
         <f>'Mortgage Performance'!H20</f>
-        <v>2113.9859999999999</v>
+        <v>2114</v>
       </c>
       <c r="I101" s="5">
         <f>'Mortgage Performance'!I20</f>
-        <v>5.2454573445614097</v>
+        <v>5.2443018518761297</v>
       </c>
       <c r="J101" s="5">
         <f>'Mortgage Performance'!J20</f>
@@ -6518,39 +6518,39 @@
       </c>
       <c r="Q101" s="5">
         <f>'Mortgage Performance'!Q20</f>
-        <v>6.2474228625243491</v>
+        <v>6.2474205999895931</v>
       </c>
       <c r="R101" s="5">
         <f>'Mortgage Performance'!R20</f>
-        <v>4.4752752283464492</v>
+        <v>4.4752719868617419</v>
       </c>
       <c r="S101" s="5">
         <f>'Mortgage Performance'!S20</f>
-        <v>6.9449225704480598E-6</v>
+        <v>6.9463502681465999E-6</v>
       </c>
       <c r="T101" s="5">
         <f>'Mortgage Performance'!T20</f>
-        <v>0.50383124769135901</v>
+        <v>0.50383175491501309</v>
       </c>
       <c r="U101" s="5">
         <f>'Mortgage Performance'!U20</f>
-        <v>1.26830944156397</v>
+        <v>1.26830991186257</v>
       </c>
       <c r="V101" s="5">
         <f>'Mortgage Performance'!V20</f>
-        <v>1.3117859874317701</v>
+        <v>1.3117858066965999</v>
       </c>
       <c r="W101" s="5">
         <f>'Mortgage Performance'!W20</f>
-        <v>2.8365596159579001</v>
+        <v>2.8366227418433998</v>
       </c>
       <c r="X101" s="5">
         <f>'Mortgage Performance'!X20</f>
-        <v>1.326686230481823</v>
+        <v>1.3267147205608412</v>
       </c>
       <c r="Y101" s="5">
         <f>'Mortgage Performance'!Y20</f>
-        <v>5.9710797456587389E-2</v>
+        <v>5.9714635642546178E-2</v>
       </c>
       <c r="Z101" s="5">
         <f>'Mortgage Performance'!Z20</f>
@@ -6558,11 +6558,11 @@
       </c>
       <c r="AA101" s="5">
         <f>'Mortgage Performance'!AA20</f>
-        <v>0.70298976286882198</v>
+        <v>0.70302047147079605</v>
       </c>
       <c r="AB101" s="5">
         <f>'Mortgage Performance'!AB20</f>
-        <v>2.2221312471468977</v>
+        <v>2.2221675231639648</v>
       </c>
       <c r="AC101" s="5">
         <f>'Mortgage Performance'!AC20</f>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="AG101" s="5">
         <f>'Mortgage Performance'!AG20</f>
-        <v>22.8476362362094</v>
+        <v>22.847731023452603</v>
       </c>
       <c r="AH101" s="5">
         <f>'Mortgage Performance'!AH20</f>
@@ -6673,23 +6673,23 @@
       </c>
       <c r="E102" s="5">
         <f>'Mortgage Performance'!E21</f>
-        <v>99.212738848672302</v>
+        <v>99.212071404996806</v>
       </c>
       <c r="F102" s="5">
         <f>'Mortgage Performance'!F21</f>
-        <v>98.768880797588849</v>
+        <v>98.768215777758741</v>
       </c>
       <c r="G102" s="5">
         <f>'Mortgage Performance'!G21</f>
-        <v>2317.1495495532899</v>
+        <v>2317.1023421462201</v>
       </c>
       <c r="H102" s="5">
         <f>'Mortgage Performance'!H21</f>
-        <v>2346.0320000000002</v>
+        <v>2346</v>
       </c>
       <c r="I102" s="5">
         <f>'Mortgage Performance'!I21</f>
-        <v>5.2454566476501601</v>
+        <v>5.2443018518761404</v>
       </c>
       <c r="J102" s="5">
         <f>'Mortgage Performance'!J21</f>
@@ -6721,39 +6721,39 @@
       </c>
       <c r="Q102" s="5">
         <f>'Mortgage Performance'!Q21</f>
-        <v>6.2474194862678676</v>
+        <v>6.2474205999895922</v>
       </c>
       <c r="R102" s="5">
         <f>'Mortgage Performance'!R21</f>
-        <v>4.475272408022712</v>
+        <v>4.475271986861741</v>
       </c>
       <c r="S102" s="5">
         <f>'Mortgage Performance'!S21</f>
-        <v>6.9440002787727696E-6</v>
+        <v>6.9463502681465398E-6</v>
       </c>
       <c r="T102" s="5">
         <f>'Mortgage Performance'!T21</f>
-        <v>0.50383118161462692</v>
+        <v>0.50383175491501309</v>
       </c>
       <c r="U102" s="5">
         <f>'Mortgage Performance'!U21</f>
-        <v>1.26830895263025</v>
+        <v>1.26830991186257</v>
       </c>
       <c r="V102" s="5">
         <f>'Mortgage Performance'!V21</f>
-        <v>1.3117855745159401</v>
+        <v>1.3117858066965999</v>
       </c>
       <c r="W102" s="5">
         <f>'Mortgage Performance'!W21</f>
-        <v>2.83656482304497</v>
+        <v>2.83662274184339</v>
       </c>
       <c r="X102" s="5">
         <f>'Mortgage Performance'!X21</f>
-        <v>1.3266757920168988</v>
+        <v>1.3267147205580314</v>
       </c>
       <c r="Y102" s="5">
         <f>'Mortgage Performance'!Y21</f>
-        <v>5.9709963876272851E-2</v>
+        <v>5.9714635639094509E-2</v>
       </c>
       <c r="Z102" s="5">
         <f>'Mortgage Performance'!Z21</f>
@@ -6761,11 +6761,11 @@
       </c>
       <c r="AA102" s="5">
         <f>'Mortgage Performance'!AA21</f>
-        <v>0.70299313852782097</v>
+        <v>0.70302047147079505</v>
       </c>
       <c r="AB102" s="5">
         <f>'Mortgage Performance'!AB21</f>
-        <v>2.222139117260435</v>
+        <v>2.2221675231642473</v>
       </c>
       <c r="AC102" s="5">
         <f>'Mortgage Performance'!AC21</f>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="AG102" s="5">
         <f>'Mortgage Performance'!AG21</f>
-        <v>25.3556295265683</v>
+        <v>25.355145213348003</v>
       </c>
       <c r="AH102" s="5">
         <f>'Mortgage Performance'!AH21</f>
@@ -6876,23 +6876,23 @@
       </c>
       <c r="E103" s="5">
         <f>'Mortgage Performance'!E24</f>
-        <v>99.5226754005988</v>
+        <v>99.519388345804899</v>
       </c>
       <c r="F103" s="5">
         <f>'Mortgage Performance'!F24</f>
-        <v>98.59441236225959</v>
+        <v>98.5911381616977</v>
       </c>
       <c r="G103" s="5">
         <f>'Mortgage Performance'!G24</f>
-        <v>4598.4522660728999</v>
+        <v>4598.2906838615709</v>
       </c>
       <c r="H103" s="5">
         <f>'Mortgage Performance'!H24</f>
-        <v>4664.009</v>
+        <v>4663.99999999999</v>
       </c>
       <c r="I103" s="5">
         <f>'Mortgage Performance'!I24</f>
-        <v>5.0956662154811498</v>
+        <v>5.0943693048893604</v>
       </c>
       <c r="J103" s="5">
         <f>'Mortgage Performance'!J24</f>
@@ -6924,39 +6924,39 @@
       </c>
       <c r="Q103" s="5">
         <f>'Mortgage Performance'!Q24</f>
-        <v>5.4023186077424832</v>
+        <v>5.402331431479805</v>
       </c>
       <c r="R103" s="5">
         <f>'Mortgage Performance'!R24</f>
-        <v>4.1475870670627524</v>
+        <v>4.147589740521533</v>
       </c>
       <c r="S103" s="5">
         <f>'Mortgage Performance'!S24</f>
-        <v>4.9143715749702596E-6</v>
+        <v>4.9118613500626001E-6</v>
       </c>
       <c r="T103" s="5">
         <f>'Mortgage Performance'!T24</f>
-        <v>0.25714654838108303</v>
+        <v>0.25715128105941504</v>
       </c>
       <c r="U103" s="5">
         <f>'Mortgage Performance'!U24</f>
-        <v>0.99758007792707204</v>
+        <v>0.99758549803750707</v>
       </c>
       <c r="V103" s="5">
         <f>'Mortgage Performance'!V24</f>
-        <v>1.0526655140469199</v>
+        <v>1.05266712765651</v>
       </c>
       <c r="W103" s="5">
         <f>'Mortgage Performance'!W24</f>
-        <v>6.0583001199961899</v>
+        <v>6.0582203141602102</v>
       </c>
       <c r="X103" s="5">
         <f>'Mortgage Performance'!X24</f>
-        <v>3.4764546208484171</v>
+        <v>3.4764365621771942</v>
       </c>
       <c r="Y103" s="5">
         <f>'Mortgage Performance'!Y24</f>
-        <v>0.29559646010224178</v>
+        <v>0.29559483893972627</v>
       </c>
       <c r="Z103" s="5">
         <f>'Mortgage Performance'!Z24</f>
@@ -6964,11 +6964,11 @@
       </c>
       <c r="AA103" s="5">
         <f>'Mortgage Performance'!AA24</f>
-        <v>0.91405837057620287</v>
+        <v>0.91398811807071101</v>
       </c>
       <c r="AB103" s="5">
         <f>'Mortgage Performance'!AB24</f>
-        <v>4.5817283401797289</v>
+        <v>4.5817288826698128</v>
       </c>
       <c r="AC103" s="5">
         <f>'Mortgage Performance'!AC24</f>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="AG103" s="5">
         <f>'Mortgage Performance'!AG24</f>
-        <v>53.830416486976098</v>
+        <v>53.8295671913042</v>
       </c>
       <c r="AH103" s="5">
         <f>'Mortgage Performance'!AH24</f>
@@ -7079,15 +7079,15 @@
       </c>
       <c r="E104" s="5">
         <f>'Mortgage Performance'!E27</f>
-        <v>105.8215182703</v>
+        <v>105.817452264</v>
       </c>
       <c r="F104" s="5">
         <f>'Mortgage Performance'!F27</f>
-        <v>105.37837510506792</v>
+        <v>105.37431546004056</v>
       </c>
       <c r="G104" s="5">
         <f>'Mortgage Performance'!G27</f>
-        <v>2234.0215522274398</v>
+        <v>2233.9354877528599</v>
       </c>
       <c r="H104" s="5">
         <f>'Mortgage Performance'!H27</f>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I104" s="5">
         <f>'Mortgage Performance'!I27</f>
-        <v>7.52</v>
+        <v>7.5150089605000003</v>
       </c>
       <c r="J104" s="5">
         <f>'Mortgage Performance'!J27</f>
@@ -7127,11 +7127,11 @@
       </c>
       <c r="Q104" s="5">
         <f>'Mortgage Performance'!Q27</f>
-        <v>6.2034924499999997</v>
+        <v>6.2034345100000001</v>
       </c>
       <c r="R104" s="5">
         <f>'Mortgage Performance'!R27</f>
-        <v>4.1873702999999995</v>
+        <v>4.1873676400000006</v>
       </c>
       <c r="S104" s="5">
         <f>'Mortgage Performance'!S27</f>
@@ -7139,43 +7139,43 @@
       </c>
       <c r="T104" s="5">
         <f>'Mortgage Performance'!T27</f>
-        <v>0.63736212999999997</v>
+        <v>0.63733549999999994</v>
       </c>
       <c r="U104" s="5">
         <f>'Mortgage Performance'!U27</f>
-        <v>1.37875364</v>
+        <v>1.37872499</v>
       </c>
       <c r="V104" s="5">
         <f>'Mortgage Performance'!V27</f>
-        <v>1.3096840300000001</v>
+        <v>1.3096451099999999</v>
       </c>
       <c r="W104" s="5">
         <f>'Mortgage Performance'!W27</f>
-        <v>2.5023864995</v>
+        <v>2.5023486348000001</v>
       </c>
       <c r="X104" s="5">
         <f>'Mortgage Performance'!X27</f>
-        <v>0.85873410871172495</v>
+        <v>0.8587431879914289</v>
       </c>
       <c r="Y104" s="5">
         <f>'Mortgage Performance'!Y27</f>
-        <v>1.2439555328228748E-2</v>
+        <v>1.2439742845200297E-2</v>
       </c>
       <c r="Z104" s="5">
         <f>'Mortgage Performance'!Z27</f>
-        <v>4.0299034800000001E-2</v>
+        <v>4.0296077700000002E-2</v>
       </c>
       <c r="AA104" s="5">
         <f>'Mortgage Performance'!AA27</f>
-        <v>1.0065564402</v>
+        <v>1.0065241979999999</v>
       </c>
       <c r="AB104" s="5">
         <f>'Mortgage Performance'!AB27</f>
-        <v>2.1929389066235769</v>
+        <v>2.1929760418677398</v>
       </c>
       <c r="AC104" s="5">
         <f>'Mortgage Performance'!AC27</f>
-        <v>24.999823269999997</v>
+        <v>24.999823229999997</v>
       </c>
       <c r="AD104" s="5">
         <f>'Mortgage Performance'!AD27</f>
@@ -7183,15 +7183,15 @@
       </c>
       <c r="AE104" s="5">
         <f>'Mortgage Performance'!AE27</f>
-        <v>0.77122922000000005</v>
+        <v>0.77122710999999999</v>
       </c>
       <c r="AF104" s="5">
         <f>'Mortgage Performance'!AF27</f>
-        <v>0.63502430999999993</v>
+        <v>0.63499089000000009</v>
       </c>
       <c r="AG104" s="5">
         <f>'Mortgage Performance'!AG27</f>
-        <v>30.8687700741859</v>
+        <v>30.866855823202098</v>
       </c>
       <c r="AH104" s="5">
         <f>'Mortgage Performance'!AH27</f>
@@ -7282,23 +7282,23 @@
       </c>
       <c r="E105" s="5">
         <f>'Mortgage Performance'!E30</f>
-        <v>99.619157479511401</v>
+        <v>99.616164868099801</v>
       </c>
       <c r="F105" s="5">
         <f>'Mortgage Performance'!F30</f>
-        <v>98.874664974390896</v>
+        <v>98.871671651399325</v>
       </c>
       <c r="G105" s="5">
         <f>'Mortgage Performance'!G30</f>
-        <v>67203.1342672873</v>
+        <v>67201.097788023093</v>
       </c>
       <c r="H105" s="5">
         <f>'Mortgage Performance'!H30</f>
-        <v>67968.001999999993</v>
+        <v>67968</v>
       </c>
       <c r="I105" s="5">
         <f>'Mortgage Performance'!I30</f>
-        <v>5.4854945206422299</v>
+        <v>5.4859875946898597</v>
       </c>
       <c r="J105" s="5">
         <f>'Mortgage Performance'!J30</f>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="M105" s="5">
         <f>'Mortgage Performance'!M30</f>
-        <v>20.459355653856047</v>
+        <v>20.459356561933774</v>
       </c>
       <c r="N105" s="5">
         <f>'Mortgage Performance'!N30</f>
@@ -7330,71 +7330,71 @@
       </c>
       <c r="Q105" s="5">
         <f>'Mortgage Performance'!Q30</f>
-        <v>5.2025235607267222</v>
+        <v>5.2025496361643411</v>
       </c>
       <c r="R105" s="5">
         <f>'Mortgage Performance'!R30</f>
-        <v>4.1521007288984277</v>
+        <v>4.1521023336663738</v>
       </c>
       <c r="S105" s="5">
         <f>'Mortgage Performance'!S30</f>
-        <v>2.3804432792151199E-2</v>
+        <v>2.3816899613857998E-2</v>
       </c>
       <c r="T105" s="5">
         <f>'Mortgage Performance'!T30</f>
-        <v>0.15360748221267198</v>
+        <v>0.15361562275216101</v>
       </c>
       <c r="U105" s="5">
         <f>'Mortgage Performance'!U30</f>
-        <v>0.87301091682347109</v>
+        <v>0.873014780131948</v>
       </c>
       <c r="V105" s="5">
         <f>'Mortgage Performance'!V30</f>
-        <v>0.94442241751585099</v>
+        <v>0.9443736310451889</v>
       </c>
       <c r="W105" s="5">
         <f>'Mortgage Performance'!W30</f>
-        <v>4.3551292135463502</v>
+        <v>4.3548227195997704</v>
       </c>
       <c r="X105" s="5">
         <f>'Mortgage Performance'!X30</f>
-        <v>3.0811604291601089</v>
+        <v>3.082417139051751</v>
       </c>
       <c r="Y105" s="5">
         <f>'Mortgage Performance'!Y30</f>
-        <v>0.50467105232080978</v>
+        <v>0.50164481170454012</v>
       </c>
       <c r="Z105" s="5">
         <f>'Mortgage Performance'!Z30</f>
-        <v>3.8024886358439401E-3</v>
+        <v>3.8125121790229502E-3</v>
       </c>
       <c r="AA105" s="5">
         <f>'Mortgage Performance'!AA30</f>
-        <v>0.72057279142717301</v>
+        <v>0.72027847107890397</v>
       </c>
       <c r="AB105" s="5">
         <f>'Mortgage Performance'!AB30</f>
-        <v>3.5344377867242085</v>
+        <v>3.5342399350896874</v>
       </c>
       <c r="AC105" s="5">
         <f>'Mortgage Performance'!AC30</f>
-        <v>12.7486430815656</v>
+        <v>12.756157678913699</v>
       </c>
       <c r="AD105" s="5">
         <f>'Mortgage Performance'!AD30</f>
-        <v>15.1888858172317</v>
+        <v>15.187928751441099</v>
       </c>
       <c r="AE105" s="5">
         <f>'Mortgage Performance'!AE30</f>
-        <v>0.10401471413918899</v>
+        <v>0.104020539981643</v>
       </c>
       <c r="AF105" s="5">
         <f>'Mortgage Performance'!AF30</f>
-        <v>0.21057113874177899</v>
+        <v>0.21056123071069299</v>
       </c>
       <c r="AG105" s="5">
         <f>'Mortgage Performance'!AG30</f>
-        <v>379.68902092132697</v>
+        <v>379.63199562389298</v>
       </c>
       <c r="AH105" s="5">
         <f>'Mortgage Performance'!AH30</f>
@@ -7485,23 +7485,23 @@
       </c>
       <c r="E106" s="5">
         <f>'Mortgage Performance'!E31</f>
-        <v>98.399833630898215</v>
+        <v>98.400258136776003</v>
       </c>
       <c r="F106" s="5">
         <f>'Mortgage Performance'!F31</f>
-        <v>98.094685196106425</v>
+        <v>98.095109145730774</v>
       </c>
       <c r="G106" s="5">
         <f>'Mortgage Performance'!G31</f>
-        <v>933.863364960637</v>
+        <v>933.86543906735892</v>
       </c>
       <c r="H106" s="5">
         <f>'Mortgage Performance'!H31</f>
-        <v>952.00199999999995</v>
+        <v>952.00000000000193</v>
       </c>
       <c r="I106" s="5">
         <f>'Mortgage Performance'!I31</f>
-        <v>4.9353707240110802</v>
+        <v>4.9333783253018302</v>
       </c>
       <c r="J106" s="5">
         <f>'Mortgage Performance'!J31</f>
@@ -7533,71 +7533,71 @@
       </c>
       <c r="Q106" s="5">
         <f>'Mortgage Performance'!Q31</f>
-        <v>6.3367118070039403</v>
+        <v>6.3366871532537035</v>
       </c>
       <c r="R106" s="5">
         <f>'Mortgage Performance'!R31</f>
-        <v>4.3687414082906155</v>
+        <v>4.3687399911806866</v>
       </c>
       <c r="S106" s="5">
         <f>'Mortgage Performance'!S31</f>
-        <v>6.1204679646547695E-6</v>
+        <v>6.1219004540595303E-6</v>
       </c>
       <c r="T106" s="5">
         <f>'Mortgage Performance'!T31</f>
-        <v>0.604781930630931</v>
+        <v>0.60477058314112297</v>
       </c>
       <c r="U106" s="5">
         <f>'Mortgage Performance'!U31</f>
-        <v>1.3631823476144298</v>
+        <v>1.36317045703144</v>
       </c>
       <c r="V106" s="5">
         <f>'Mortgage Performance'!V31</f>
-        <v>1.28725564082439</v>
+        <v>1.2872443210447699</v>
       </c>
       <c r="W106" s="5">
         <f>'Mortgage Performance'!W31</f>
-        <v>1.6779457853616899</v>
+        <v>1.6779531573206301</v>
       </c>
       <c r="X106" s="5">
         <f>'Mortgage Performance'!X31</f>
-        <v>0.53971916194313363</v>
+        <v>0.53973025381939643</v>
       </c>
       <c r="Y106" s="5">
         <f>'Mortgage Performance'!Y31</f>
-        <v>1.8502126358127716E-2</v>
+        <v>1.8502716429935586E-2</v>
       </c>
       <c r="Z106" s="5">
         <f>'Mortgage Performance'!Z31</f>
-        <v>-6.4517178155618091E-3</v>
+        <v>-6.44831771502652E-3</v>
       </c>
       <c r="AA106" s="5">
         <f>'Mortgage Performance'!AA31</f>
-        <v>0.56651703915181495</v>
+        <v>0.56652014954945684</v>
       </c>
       <c r="AB106" s="5">
         <f>'Mortgage Performance'!AB31</f>
-        <v>1.49551594959012</v>
+        <v>1.4955239353276097</v>
       </c>
       <c r="AC106" s="5">
         <f>'Mortgage Performance'!AC31</f>
-        <v>24.9984302475041</v>
+        <v>24.998430222486199</v>
       </c>
       <c r="AD106" s="5">
         <f>'Mortgage Performance'!AD31</f>
-        <v>24.997919400541495</v>
+        <v>24.997919393146901</v>
       </c>
       <c r="AE106" s="5">
         <f>'Mortgage Performance'!AE31</f>
-        <v>0.69966870098936806</v>
+        <v>0.699666213330427</v>
       </c>
       <c r="AF106" s="5">
         <f>'Mortgage Performance'!AF31</f>
-        <v>0.56146065878790197</v>
+        <v>0.56145287830436996</v>
       </c>
       <c r="AG106" s="5">
         <f>'Mortgage Performance'!AG31</f>
-        <v>8.8115483428346995</v>
+        <v>8.8114337810901002</v>
       </c>
       <c r="AH106" s="5">
         <f>'Mortgage Performance'!AH31</f>
@@ -7688,23 +7688,23 @@
       </c>
       <c r="E107" s="5">
         <f>'Mortgage Performance'!E34</f>
-        <v>99.582103455405402</v>
+        <v>99.578992879836207</v>
       </c>
       <c r="F107" s="5">
         <f>'Mortgage Performance'!F34</f>
-        <v>98.67335445215673</v>
+        <v>98.670255138894973</v>
       </c>
       <c r="G107" s="5">
         <f>'Mortgage Performance'!G34</f>
-        <v>8614.17002940366</v>
+        <v>8613.9132736255397</v>
       </c>
       <c r="H107" s="5">
         <f>'Mortgage Performance'!H34</f>
-        <v>8729.9860000000008</v>
+        <v>8730.0000000000091</v>
       </c>
       <c r="I107" s="5">
         <f>'Mortgage Performance'!I34</f>
-        <v>5.0956739060062599</v>
+        <v>5.0943693048893604</v>
       </c>
       <c r="J107" s="5">
         <f>'Mortgage Performance'!J34</f>
@@ -7736,39 +7736,39 @@
       </c>
       <c r="Q107" s="5">
         <f>'Mortgage Performance'!Q34</f>
-        <v>5.3963140937163825</v>
+        <v>5.3963245946717731</v>
       </c>
       <c r="R107" s="5">
         <f>'Mortgage Performance'!R34</f>
-        <v>4.1426295748090247</v>
+        <v>4.142630723775051</v>
       </c>
       <c r="S107" s="5">
         <f>'Mortgage Performance'!S34</f>
-        <v>1.25756168998307E-5</v>
+        <v>1.2573588166587301E-5</v>
       </c>
       <c r="T107" s="5">
         <f>'Mortgage Performance'!T34</f>
-        <v>0.25683635898505303</v>
+        <v>0.256840756831273</v>
       </c>
       <c r="U107" s="5">
         <f>'Mortgage Performance'!U34</f>
-        <v>0.99683558430540498</v>
+        <v>0.9968405404772821</v>
       </c>
       <c r="V107" s="5">
         <f>'Mortgage Performance'!V34</f>
-        <v>1.05371923050123</v>
+        <v>1.05372086324134</v>
       </c>
       <c r="W107" s="5">
         <f>'Mortgage Performance'!W34</f>
-        <v>5.9447526960228503</v>
+        <v>5.9446741166168904</v>
       </c>
       <c r="X107" s="5">
         <f>'Mortgage Performance'!X34</f>
-        <v>3.3782365009505448</v>
+        <v>3.3782100983205994</v>
       </c>
       <c r="Y107" s="5">
         <f>'Mortgage Performance'!Y34</f>
-        <v>0.29081779367402461</v>
+        <v>0.29081517083314035</v>
       </c>
       <c r="Z107" s="5">
         <f>'Mortgage Performance'!Z34</f>
@@ -7776,11 +7776,11 @@
       </c>
       <c r="AA107" s="5">
         <f>'Mortgage Performance'!AA34</f>
-        <v>0.89472659758723105</v>
+        <v>0.89466029046083895</v>
       </c>
       <c r="AB107" s="5">
         <f>'Mortgage Performance'!AB34</f>
-        <v>4.482614428805034</v>
+        <v>4.4826161599567813</v>
       </c>
       <c r="AC107" s="5">
         <f>'Mortgage Performance'!AC34</f>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="AG107" s="5">
         <f>'Mortgage Performance'!AG34</f>
-        <v>98.640393685929695</v>
+        <v>98.639329401815189</v>
       </c>
       <c r="AH107" s="5">
         <f>'Mortgage Performance'!AH34</f>
@@ -7891,23 +7891,23 @@
       </c>
       <c r="E108" s="5">
         <f>'Mortgage Performance'!E35</f>
-        <v>99.582065858998106</v>
+        <v>99.578992879843597</v>
       </c>
       <c r="F108" s="5">
         <f>'Mortgage Performance'!F35</f>
-        <v>98.673306702962932</v>
+        <v>98.670255138895399</v>
       </c>
       <c r="G108" s="5">
         <f>'Mortgage Performance'!G35</f>
-        <v>537.77050826421498</v>
+        <v>537.75289050697893</v>
       </c>
       <c r="H108" s="5">
         <f>'Mortgage Performance'!H35</f>
-        <v>545.00099999999998</v>
+        <v>544.99999999999898</v>
       </c>
       <c r="I108" s="5">
         <f>'Mortgage Performance'!I35</f>
-        <v>5.0956567235656403</v>
+        <v>5.0943693048893604</v>
       </c>
       <c r="J108" s="5">
         <f>'Mortgage Performance'!J35</f>
@@ -7939,39 +7939,39 @@
       </c>
       <c r="Q108" s="5">
         <f>'Mortgage Performance'!Q35</f>
-        <v>5.3963080952065106</v>
+        <v>5.3963245946717731</v>
       </c>
       <c r="R108" s="5">
         <f>'Mortgage Performance'!R35</f>
-        <v>4.1426236521883553</v>
+        <v>4.142630723775051</v>
       </c>
       <c r="S108" s="5">
         <f>'Mortgage Performance'!S35</f>
-        <v>1.2575327156494599E-5</v>
+        <v>1.2573588166587399E-5</v>
       </c>
       <c r="T108" s="5">
         <f>'Mortgage Performance'!T35</f>
-        <v>0.25683640235123095</v>
+        <v>0.256840756831273</v>
       </c>
       <c r="U108" s="5">
         <f>'Mortgage Performance'!U35</f>
-        <v>0.99683546533976797</v>
+        <v>0.9968405404772821</v>
       </c>
       <c r="V108" s="5">
         <f>'Mortgage Performance'!V35</f>
-        <v>1.0537198429440799</v>
+        <v>1.05372086324134</v>
       </c>
       <c r="W108" s="5">
         <f>'Mortgage Performance'!W35</f>
-        <v>5.9448229618482902</v>
+        <v>5.9446741166168904</v>
       </c>
       <c r="X108" s="5">
         <f>'Mortgage Performance'!X35</f>
-        <v>3.3782168164369812</v>
+        <v>3.37821009832115</v>
       </c>
       <c r="Y108" s="5">
         <f>'Mortgage Performance'!Y35</f>
-        <v>0.29081635481464457</v>
+        <v>0.29081517083808739</v>
       </c>
       <c r="Z108" s="5">
         <f>'Mortgage Performance'!Z35</f>
@@ -7979,11 +7979,11 @@
       </c>
       <c r="AA108" s="5">
         <f>'Mortgage Performance'!AA35</f>
-        <v>0.89473800972485495</v>
+        <v>0.89466029046100903</v>
       </c>
       <c r="AB108" s="5">
         <f>'Mortgage Performance'!AB35</f>
-        <v>4.482667689529829</v>
+        <v>4.4826161599575922</v>
       </c>
       <c r="AC108" s="5">
         <f>'Mortgage Performance'!AC35</f>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="AG108" s="5">
         <f>'Mortgage Performance'!AG35</f>
-        <v>6.1580526945178997</v>
+        <v>6.1578962799527002</v>
       </c>
       <c r="AH108" s="5">
         <f>'Mortgage Performance'!AH35</f>
@@ -8094,23 +8094,23 @@
       </c>
       <c r="E109" s="5">
         <f>'Mortgage Performance'!E38</f>
-        <v>102.62005789186701</v>
+        <v>102.622871083501</v>
       </c>
       <c r="F109" s="5">
         <f>'Mortgage Performance'!F38</f>
-        <v>102.15255667492437</v>
+        <v>102.15536135707683</v>
       </c>
       <c r="G109" s="5">
         <f>'Mortgage Performance'!G38</f>
-        <v>908.13929341677795</v>
+        <v>908.161162464413</v>
       </c>
       <c r="H109" s="5">
         <f>'Mortgage Performance'!H38</f>
-        <v>889.00300000000004</v>
+        <v>889</v>
       </c>
       <c r="I109" s="5">
         <f>'Mortgage Performance'!I38</f>
-        <v>5.9587775406832204</v>
+        <v>5.9597848507291804</v>
       </c>
       <c r="J109" s="5">
         <f>'Mortgage Performance'!J38</f>
@@ -8142,39 +8142,39 @@
       </c>
       <c r="Q109" s="5">
         <f>'Mortgage Performance'!Q38</f>
-        <v>5.5983728831140294</v>
+        <v>5.5983548261547842</v>
       </c>
       <c r="R109" s="5">
         <f>'Mortgage Performance'!R38</f>
-        <v>4.3591801927679663</v>
+        <v>4.3591729506329164</v>
       </c>
       <c r="S109" s="5">
         <f>'Mortgage Performance'!S38</f>
-        <v>9.8753862510948229E-7</v>
+        <v>9.8656761712108903E-7</v>
       </c>
       <c r="T109" s="5">
         <f>'Mortgage Performance'!T38</f>
-        <v>0.25089826827778899</v>
+        <v>0.25089311621988403</v>
       </c>
       <c r="U109" s="5">
         <f>'Mortgage Performance'!U38</f>
-        <v>0.98829343452964891</v>
+        <v>0.98828777273436696</v>
       </c>
       <c r="V109" s="5">
         <f>'Mortgage Performance'!V38</f>
-        <v>0.97299473098579592</v>
+        <v>0.97299086192756001</v>
       </c>
       <c r="W109" s="5">
         <f>'Mortgage Performance'!W38</f>
-        <v>3.1964882587399099</v>
+        <v>3.1968617779302</v>
       </c>
       <c r="X109" s="5">
         <f>'Mortgage Performance'!X38</f>
-        <v>2.0653258357402233</v>
+        <v>2.0654883273848426</v>
       </c>
       <c r="Y109" s="5">
         <f>'Mortgage Performance'!Y38</f>
-        <v>0.17302247187219372</v>
+        <v>0.17305147130745646</v>
       </c>
       <c r="Z109" s="5">
         <f>'Mortgage Performance'!Z38</f>
@@ -8182,11 +8182,11 @@
       </c>
       <c r="AA109" s="5">
         <f>'Mortgage Performance'!AA38</f>
-        <v>0.62085021618730596</v>
+        <v>0.62101942404989796</v>
       </c>
       <c r="AB109" s="5">
         <f>'Mortgage Performance'!AB38</f>
-        <v>2.4002601670448245</v>
+        <v>2.400411554646702</v>
       </c>
       <c r="AC109" s="5">
         <f>'Mortgage Performance'!AC38</f>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="AG109" s="5">
         <f>'Mortgage Performance'!AG38</f>
-        <v>5.1675331865108003</v>
+        <v>5.1676098078577999</v>
       </c>
       <c r="AH109" s="5">
         <f>'Mortgage Performance'!AH38</f>
@@ -8297,23 +8297,23 @@
       </c>
       <c r="E110" s="5">
         <f>'Mortgage Performance'!E41</f>
-        <v>102.100194568162</v>
+        <v>102.101040655283</v>
       </c>
       <c r="F110" s="5">
         <f>'Mortgage Performance'!F41</f>
-        <v>101.35335488798236</v>
+        <v>101.35419925208556</v>
       </c>
       <c r="G110" s="5">
         <f>'Mortgage Performance'!G41</f>
-        <v>6243.3605798984199</v>
+        <v>6243.4186739284605</v>
       </c>
       <c r="H110" s="5">
         <f>'Mortgage Performance'!H41</f>
-        <v>6159.9939999999997</v>
+        <v>6159.99999999999</v>
       </c>
       <c r="I110" s="5">
         <f>'Mortgage Performance'!I41</f>
-        <v>5.7454596709022798</v>
+        <v>5.7453444984279898</v>
       </c>
       <c r="J110" s="5">
         <f>'Mortgage Performance'!J41</f>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="M110" s="5">
         <f>'Mortgage Performance'!M41</f>
-        <v>19.993506487181648</v>
+        <v>19.993506493506487</v>
       </c>
       <c r="N110" s="5">
         <f>'Mortgage Performance'!N41</f>
@@ -8345,51 +8345,51 @@
       </c>
       <c r="Q110" s="5">
         <f>'Mortgage Performance'!Q41</f>
-        <v>5.702758398465841</v>
+        <v>5.702749196560041</v>
       </c>
       <c r="R110" s="5">
         <f>'Mortgage Performance'!R41</f>
-        <v>4.2560248424168945</v>
+        <v>4.2560195637814697</v>
       </c>
       <c r="S110" s="5">
         <f>'Mortgage Performance'!S41</f>
-        <v>-5.3533296544575997E-6</v>
+        <v>-5.3544040998382497E-6</v>
       </c>
       <c r="T110" s="5">
         <f>'Mortgage Performance'!T41</f>
-        <v>0.35115193590773097</v>
+        <v>0.35114999611728104</v>
       </c>
       <c r="U110" s="5">
         <f>'Mortgage Performance'!U41</f>
-        <v>1.0955869734708701</v>
+        <v>1.0955849910653901</v>
       </c>
       <c r="V110" s="5">
         <f>'Mortgage Performance'!V41</f>
-        <v>1.14319506292705</v>
+        <v>1.1431911200460902</v>
       </c>
       <c r="W110" s="5">
         <f>'Mortgage Performance'!W41</f>
-        <v>5.1218040237464697</v>
+        <v>5.1220700646937898</v>
       </c>
       <c r="X110" s="5">
         <f>'Mortgage Performance'!X41</f>
-        <v>3.1010293443398789</v>
+        <v>3.1011331812586884</v>
       </c>
       <c r="Y110" s="5">
         <f>'Mortgage Performance'!Y41</f>
-        <v>0.29056224435422501</v>
+        <v>0.29058050794622858</v>
       </c>
       <c r="Z110" s="5">
         <f>'Mortgage Performance'!Z41</f>
-        <v>-1.9707801423840202E-6</v>
+        <v>-1.9707618045843699E-6</v>
       </c>
       <c r="AA110" s="5">
         <f>'Mortgage Performance'!AA41</f>
-        <v>0.89401370055280704</v>
+        <v>0.89413231091337986</v>
       </c>
       <c r="AB110" s="5">
         <f>'Mortgage Performance'!AB41</f>
-        <v>3.7611360740367008</v>
+        <v>3.7612357423675409</v>
       </c>
       <c r="AC110" s="5">
         <f>'Mortgage Performance'!AC41</f>
@@ -8397,19 +8397,19 @@
       </c>
       <c r="AD110" s="5">
         <f>'Mortgage Performance'!AD41</f>
-        <v>1.09434061364345E-2</v>
+        <v>1.09433954772727E-2</v>
       </c>
       <c r="AE110" s="5">
         <f>'Mortgage Performance'!AE41</f>
-        <v>0.34408824664439602</v>
+        <v>0.34408824675324701</v>
       </c>
       <c r="AF110" s="5">
         <f>'Mortgage Performance'!AF41</f>
-        <v>0.34408824664439602</v>
+        <v>0.34408824675324701</v>
       </c>
       <c r="AG110" s="5">
         <f>'Mortgage Performance'!AG41</f>
-        <v>79.806566672555803</v>
+        <v>79.806828527229797</v>
       </c>
       <c r="AH110" s="5">
         <f>'Mortgage Performance'!AH41</f>
@@ -8500,23 +8500,23 @@
       </c>
       <c r="E111" s="5">
         <f>'Mortgage Performance'!E44</f>
-        <v>101.213542697444</v>
+        <v>101.213966548915</v>
       </c>
       <c r="F111" s="5">
         <f>'Mortgage Performance'!F44</f>
-        <v>100.87881011518799</v>
+        <v>100.87923331370857</v>
       </c>
       <c r="G111" s="5">
         <f>'Mortgage Performance'!G44</f>
-        <v>6580.3227662375102</v>
+        <v>6580.3523890532097</v>
       </c>
       <c r="H111" s="5">
         <f>'Mortgage Performance'!H44</f>
-        <v>6522.9979999999996</v>
+        <v>6523</v>
       </c>
       <c r="I111" s="5">
         <f>'Mortgage Performance'!I44</f>
-        <v>7.1812972731250202</v>
+        <v>7.1816729908963888</v>
       </c>
       <c r="J111" s="5">
         <f>'Mortgage Performance'!J44</f>
@@ -8548,71 +8548,71 @@
       </c>
       <c r="Q111" s="5">
         <f>'Mortgage Performance'!Q44</f>
-        <v>6.589229295841716</v>
+        <v>6.5892272550266107</v>
       </c>
       <c r="R111" s="5">
         <f>'Mortgage Performance'!R44</f>
-        <v>4.3513012185054025</v>
+        <v>4.351300976343901</v>
       </c>
       <c r="S111" s="5">
         <f>'Mortgage Performance'!S44</f>
-        <v>6.0613370180175905E-6</v>
+        <v>6.0576544097774201E-6</v>
       </c>
       <c r="T111" s="5">
         <f>'Mortgage Performance'!T44</f>
-        <v>0.72693360669120588</v>
+        <v>0.72693275788880996</v>
       </c>
       <c r="U111" s="5">
         <f>'Mortgage Performance'!U44</f>
-        <v>1.5109884093080899</v>
+        <v>1.51098746313949</v>
       </c>
       <c r="V111" s="5">
         <f>'Mortgage Performance'!V44</f>
-        <v>1.4451313645652397</v>
+        <v>1.4451307790975201</v>
       </c>
       <c r="W111" s="5">
         <f>'Mortgage Performance'!W44</f>
-        <v>1.8609186464577703</v>
+        <v>1.8609212330096501</v>
       </c>
       <c r="X111" s="5">
         <f>'Mortgage Performance'!X44</f>
-        <v>1.6182426035666528</v>
+        <v>1.6182438202753942</v>
       </c>
       <c r="Y111" s="5">
         <f>'Mortgage Performance'!Y44</f>
-        <v>5.8735110424393423E-2</v>
+        <v>5.8735142398805271E-2</v>
       </c>
       <c r="Z111" s="5">
         <f>'Mortgage Performance'!Z44</f>
-        <v>4.2113311569417699E-3</v>
+        <v>4.2122401631712299E-3</v>
       </c>
       <c r="AA111" s="5">
         <f>'Mortgage Performance'!AA44</f>
-        <v>0.69388376892128201</v>
+        <v>0.69388871606443714</v>
       </c>
       <c r="AB111" s="5">
         <f>'Mortgage Performance'!AB44</f>
-        <v>1.6399928074348953</v>
+        <v>1.6399939177950049</v>
       </c>
       <c r="AC111" s="5">
         <f>'Mortgage Performance'!AC44</f>
-        <v>17.999198439449401</v>
+        <v>17.999198442357297</v>
       </c>
       <c r="AD111" s="5">
         <f>'Mortgage Performance'!AD44</f>
-        <v>17.998452931897798</v>
+        <v>17.9984529360826</v>
       </c>
       <c r="AE111" s="5">
         <f>'Mortgage Performance'!AE44</f>
-        <v>0.63598123215822899</v>
+        <v>0.63598134337104595</v>
       </c>
       <c r="AF111" s="5">
         <f>'Mortgage Performance'!AF44</f>
-        <v>0.71459068465686304</v>
+        <v>0.71459215472235404</v>
       </c>
       <c r="AG111" s="5">
         <f>'Mortgage Performance'!AG44</f>
-        <v>83.988175963911601</v>
+        <v>83.988581280998204</v>
       </c>
       <c r="AH111" s="5">
         <f>'Mortgage Performance'!AH44</f>
@@ -8703,23 +8703,23 @@
       </c>
       <c r="E112" s="5">
         <f>'Mortgage Performance'!E45</f>
-        <v>97.105756262783402</v>
+        <v>97.1075091678738</v>
       </c>
       <c r="F112" s="5">
         <f>'Mortgage Performance'!F45</f>
-        <v>96.735906588263248</v>
+        <v>96.737655527489395</v>
       </c>
       <c r="G112" s="5">
         <f>'Mortgage Performance'!G45</f>
-        <v>3372.2175731031202</v>
+        <v>3372.2746716882803</v>
       </c>
       <c r="H112" s="5">
         <f>'Mortgage Performance'!H45</f>
-        <v>3486.0039999999999</v>
+        <v>3486</v>
       </c>
       <c r="I112" s="5">
         <f>'Mortgage Performance'!I45</f>
-        <v>7.5874029088893788</v>
+        <v>7.5886250947645202</v>
       </c>
       <c r="J112" s="5">
         <f>'Mortgage Performance'!J45</f>
@@ -8751,59 +8751,59 @@
       </c>
       <c r="Q112" s="5">
         <f>'Mortgage Performance'!Q45</f>
-        <v>9.3902047834774596</v>
+        <v>9.3901492034319105</v>
       </c>
       <c r="R112" s="5">
         <f>'Mortgage Performance'!R45</f>
-        <v>4.3445068657615922</v>
+        <v>4.3445050875693312</v>
       </c>
       <c r="S112" s="5">
         <f>'Mortgage Performance'!S45</f>
-        <v>4.8191252747650805E-5</v>
+        <v>4.8200102719598194E-5</v>
       </c>
       <c r="T112" s="5">
         <f>'Mortgage Performance'!T45</f>
-        <v>1.9973309067038401</v>
+        <v>1.9973049463784505</v>
       </c>
       <c r="U112" s="5">
         <f>'Mortgage Performance'!U45</f>
-        <v>3.0483188197592805</v>
+        <v>3.04829096938141</v>
       </c>
       <c r="V112" s="5">
         <f>'Mortgage Performance'!V45</f>
-        <v>3.0143747668268301</v>
+        <v>3.0143493975329401</v>
       </c>
       <c r="W112" s="5">
         <f>'Mortgage Performance'!W45</f>
-        <v>2.1731593716949602</v>
+        <v>2.1731775804642401</v>
       </c>
       <c r="X112" s="5">
         <f>'Mortgage Performance'!X45</f>
-        <v>1.7619132951947705</v>
+        <v>1.7619214668464083</v>
       </c>
       <c r="Y112" s="5">
         <f>'Mortgage Performance'!Y45</f>
-        <v>7.4538964508615399E-2</v>
+        <v>7.4539261556943515E-2</v>
       </c>
       <c r="Z112" s="5">
         <f>'Mortgage Performance'!Z45</f>
-        <v>-6.0890090213270602E-3</v>
+        <v>-6.0868130682029701E-3</v>
       </c>
       <c r="AA112" s="5">
         <f>'Mortgage Performance'!AA45</f>
-        <v>1.38274567436388</v>
+        <v>1.3827570815693699</v>
       </c>
       <c r="AB112" s="5">
         <f>'Mortgage Performance'!AB45</f>
-        <v>1.7961538631362128</v>
+        <v>1.7961618245355815</v>
       </c>
       <c r="AC112" s="5">
         <f>'Mortgage Performance'!AC45</f>
-        <v>9.9990507985834594</v>
+        <v>9.9990508129879707</v>
       </c>
       <c r="AD112" s="5">
         <f>'Mortgage Performance'!AD45</f>
-        <v>9.9983887737570587</v>
+        <v>9.9983887886136387</v>
       </c>
       <c r="AE112" s="5">
         <f>'Mortgage Performance'!AE45</f>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="AG112" s="5">
         <f>'Mortgage Performance'!AG45</f>
-        <v>120.661282327419</v>
+        <v>120.662437716049</v>
       </c>
       <c r="AH112" s="5">
         <f>'Mortgage Performance'!AH45</f>
